--- a/publipostage2/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
+++ b/publipostage2/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
+++ b/publipostage2/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00392158</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Target-controlled Infusion of Propofol and Remifentanil During General Anaesthesia Guided by the Index Bispectral: Comparison Between Manual Perfusion and Automated Perfusion</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00391885</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Target-controlled Infusion of Propofol and Remifentanil During General Anaesthesia Guided by Entropy of the Electroencephalogram: Comparison Between Manual Perfusion and Automated Perfusion</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -596,32 +611,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00393003</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Target-controlled Infusion of Propofol and Remifentanil for Postoperative Sedation Guided by the Bispectral Index: Comparison Between Manual Perfusion and Automated Perfusion</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -640,32 +660,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00571181</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Target-Controlled Infusion of Propofol and Remifentanil During General Anaesthesia Guided by the Index Bispectral: Comparison Between Manual Perfusion and Automated Perfusion During Rigid Bronchoscopy</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -682,38 +707,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2007-001677-28</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Evaluation de l’effet anesthésique du protoxyde d’azote dans une population d’opérés recevant une anesthésie totale intraveineuse en « boucle » guidée par l’index bispectral (Effect of nitrous oxide on intra-venous closed-loop anesthesia)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Drone-Proto</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -728,36 +758,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT00547209</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Anesthésie Totale Intraveineuse en " Boucle d'Asservissement " guidée Par l'Index Bispectral : Effet de l'Adjonction de Protoxyde d'Azote (Effect of Nitrous Oxide on Intravenous Closed-loop Anesthesia)</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Drone-N2O</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -776,32 +811,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT00921284</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Closed-Loop Delivery of Propofol and Remifentanil: Sparing Effect of Dexmedetomidine</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -820,36 +860,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT01058525</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Influence of Ultrasonographic Hydro-dissection With Glucose 5% Solution on Median Nerve Block Efficiency: a Prospective and Randomized Study</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Hydro-Echo</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -868,36 +913,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT00627081</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Intravenous Opioid-sparing Effect of Thoracic Epidural Administration of Chirocaine (5 mg/ml) During Thoracotomy</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Drone-APDT</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -916,32 +966,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT01321580</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Comparison of the Hemoglobin Results Obtained With the Masimo Pronto 7 and the Clinical Laboratory Measurement Study</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -960,36 +1015,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT01041872</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Dose-effect of Propofol for Anesthetic Induction: Double-blind Comparison of Different Propofol Formulations Administered Alone or With Lidocaine</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Propofols</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1008,32 +1068,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT00772616</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Influence of Intraoperative Analgesia (Sufentanil Administered According to the Usual Criteria or Remifentanil Administered by a Closed-loop System Using Bispectral Index as the Controller) on the Postoperative Morphine Consumption</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1052,36 +1117,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT01161004</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Pilot Study of EEG Signs of Awakening Secondary to Injection of Sugammadex: Evaluation by Recording Bispectral Index and NeuroSENSE (Prospective, Double-blind Study)</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Sugarecovery</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1100,36 +1170,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT00809393</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Comparison of Two Tranexamic Acid Dose Regimens on Transfusion Needs During Cardiac Surgery With Cardiopulmonary Bypass</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Exacylcardio</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1148,36 +1223,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT03357900</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Closed-loop Anaesthesia for Liver Transplantation: a Pilot Study</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>THConcentr</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1196,36 +1276,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT01782846</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Double Blind-randomized Study Comparing the Efficacy of Two Analgesia (Ixprim® and Dafalgan-Codeine®) , in the Emergency Unit.</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Trama-Code</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1244,32 +1329,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT01750970</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Endoscopic Resection of High Grade(TA, T1, Cis)Non-muscle Invasive Bladder Tumors: Modification of Usual Management of This Resection by Using the Blue Light and Evaluation of the Outcome: Should we Maintain the Dogma of Second Endoscopic Resection as a Principle?</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="b">
         <v>1</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1288,36 +1378,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT01648725</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Influence of Hypnosis on the Propofol Requirement to Induce General Anesthesia</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>LoopHypnosis</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1336,32 +1431,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT00969683</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Comparison Between Left Double-lumen Tube With or Without a Carinal Hook During Lung Surgery</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1380,36 +1480,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT02663284</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Evaluation of Non-invasive Monitor of Physiodoloris Pain in Patients With Complex Regional Pain Syndrome Treated by Nerve Block (Prospective Monocenter Study)</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>ANI-ALGO</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1428,36 +1533,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT01949181</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Relationship Between Blood, Hair and Lung Metals/Metalloids Concentration (Cadmium, Iron, Copper, Nickel, Chrome, Arsenic, Vanadium, Beryllium, and Zinc) and Lung Cancer or Chronic Obstructive Pulmonary Disease.</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Métaux/Poumons</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1476,36 +1586,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT01791166</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Humoral Rejection - Diagnostic Markers in Pulmonary Transplant.</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>RHUM-TP</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1524,36 +1639,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT01654913</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Influence of the Inspired Oxygen Fraction on the Noninvasive Measurement of Hemoglobin Using Two Different Devices (Namely Pronto 7 and NBM-200)</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Hb-O2</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1570,38 +1690,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2010-020067-20</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>A multicentre phase II trial to determine the efficacy of RAD 001 (everolimus, Afinitor®) as second line therapy in patients with transitional cell carcinoma (TCC) of the urothelium which failed or progressed after first line chemotherapy.</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>AFINIVEST</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1616,36 +1741,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT02077101</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Representations and Acceptability of HIV Therapeutic Vaccine in a Cohort of HIV-1 Infected Outpatients Followed at Hospital : Multicentric Interventional Study Qualitative and Quantitative</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>RAVVIH</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
         <v>1</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1664,36 +1794,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT02951442</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Identification of Markers (Klotho-FGF23 Axis) as Determinant in the Evolution of Arterial Stiffness During the First Year of Renal Transplant</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>KLOTHO</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1712,36 +1847,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT02934295</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Study of Rubella Immunity. Response to Vaccination of Subjects With Very Low, Equivocal or Undetectable Titers of Rubella Virus Antibodies</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>ImmRubVac</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1760,32 +1900,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT02986880</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>A Dose-response, Randomized, Double-blind Study to Evaluate the Effect of Type-A Botulinum Toxin in the Post-radiosurgical Neck Contractures</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1804,36 +1949,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT01592162</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Dose-effect of Propofol for Anesthetic Induction: Double-blind Comparison of Different Propofol Formulations Administered Alone or With Remifentanil</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>PropofolRemi</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1852,36 +2002,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT02040948</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Accuracy of Pulse Pressure Variation (Nexfin) and of Pleth Variability Index (Radical 7) to Predict the Response to a Fluid Challenge: Comparison With the Reference Method (Measurement of Stroke Volume by Esophageal Doppler)</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Nexfin2</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1900,36 +2055,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT01801137</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>A Multicentre Phase III Trial to Determine the Efficacy of RAD 001 (Everolimus, Afinitor) as Second Line Therapy in Patients With Transitional Cell Carcinoma TCC of the Urothelium Which Failed or Progressed After First Line Chemotherapy</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>AFINIVEST</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1948,36 +2108,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT01154738</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Influence of Lidocaine on a Closed-Loop Anesthesia System</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>LoopLido</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1996,36 +2161,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT01891838</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Transsphenoidal Surgery for Pituitary Adenomas: Influence of the Ventilation Mode on Intraoperative Bleeding</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>Vent-Hyp</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
         <v>1</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2044,36 +2214,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT02593344</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Peripheral Endothelial Function in Asthmatic Patients</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Endothasthm</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2092,36 +2267,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT01597466</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>A Comparison Study of Two Different Techniques for Identifying the Epidural Space in Patients Requiring Thoracic Epidural Analgesia: a Prospective Multicentric Randomized Study</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Epidrum-Tho</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2140,36 +2320,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT01198639</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>One-year Mortality According to the Method of Total Intravenous Anesthesia. A Prospective, Randomized and Multicenter Study</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>ELA</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
         <v>1</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2188,36 +2373,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT02245789</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Does the Use of a Videolaryngoscope Modifies Anesthetic Induction ?</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>MGM-PicRemi</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2236,36 +2426,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT02564185</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Prospective, Randomized Study of the Impact of a Education Program for Patients Suffering From Low Back Pain</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>TENS</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2284,36 +2479,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT01579851</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Recovery After Sugammadex(TIVA Using Propofol vs Inhalation Anesthesia Using Sevoflurane)</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Sugammadex2</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2332,36 +2532,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT00886418</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Effect of Continuous Myorelaxation on the Need for Hypnotic Agent During Surgical Procedures Which do Not Require it (Multicenter, Randomized and Prospective Study)</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>Drone-Curare</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2380,36 +2585,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT02902471</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Functional Evaluation of Distal Airways by Forced Oscillations: Diagnosis Help in Bronchiolitis Obliterans Syndrome in Post Bone Marrow Transplantation</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>OSCILLOMOELL</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2428,36 +2638,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT02249364</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Interest of Hypnosis Before the Induction of Anesthesia. Study in Women Submitted to One Day Gynecological Surgical Procedures</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>Hypnose2</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2476,36 +2691,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT01876290</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Should we Associate Dexamethasone and Ondansetron to Closed-loop Anesthesia to Reduce the Incidence of Postoperative Nausea and Vomiting After Bariatric Surgery?</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Loop-NVPO</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2524,32 +2744,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT01807975</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
         <is>
           <t>OSCILLOPOUMON</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2568,36 +2793,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT02905695</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Contribution of the Local Infiltration of Chirocaine® in the Management of the Post-partum Perineal Pain After Episiotomy or First-degree Tear</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>EPISIO</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2616,36 +2846,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT02906436</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Pilot Study of Lung Transplantation After Ex-Vivo Lung Reconditioning</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>ExVivo</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2664,36 +2899,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT02899494</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Effect of the "Adjusted Vocal Expression" Method on the Satisfaction of Parturients About Their Childbirth (NaîtreEnchanté)</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>NaitreEnchan</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2712,36 +2952,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT02902627</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Pain in Oncolgy: Evaluation of a Non Invasive Monitoring Device (ANI). A Monocentric Prospective Study</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>ANIONCO</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2760,36 +3005,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT02834273</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Impact of Patient Education Following a Stroke on Knowledge of Risk Factors, Stroke Warning Signs and What to do in Cases of Stroke</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>EPIC</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
         <v>1</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2808,36 +3058,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT01732133</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Evaluation of the System NEXFIN for Continuous and Non-invasive Measure of the Blood Pressure During Cesarean Delivery Practised Under Spinal Anesthesia</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>NEXFIN-CESAR</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
         <v>1</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2856,36 +3111,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT02290054</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Auriculotherapy for Prevention of Postoperative Urinary Retention in Men Receiving Postoperative Epidural Analgesia After Thoracic Surgery</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>RUPO</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
         <v>1</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2904,32 +3164,37 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT02778243</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
         <is>
           <t>STERPROSER</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2948,36 +3213,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT02793245</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Influence of Patient Characteristics on the Tracheobronchial Anatomy Evaluated by a CT Examination</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>Scan-Bronchi</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2996,36 +3266,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT02878551</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Evaluation of the Benefits of a Program of Prehabilitation: Pilot Study</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>PrehabPilote</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3044,36 +3319,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT02593357</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Assessment of a Peripheral Endothelial Dysfunction in COPD (Chronic Obstructive Pulmonary Disease)</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>endothBPCO</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3092,36 +3372,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT02897882</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Acute and Chronic Pain in Lung Transplantation: Prevalence, Associated Factors, Medical Care</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>MUCODOULEUR</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3140,36 +3425,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT02934308</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Comparison of the Skin Conductance Values and Patient Pain Scores During Minor Procedures in the ICU</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>ICUPAIN</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3188,36 +3478,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT02413632</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Asymptomatic Sexually Transmitted Infections (STI) : Comparison of Two Screening Strategies Routine Screening Versus Screening as Reported by the Risks Taken by the Patient, in a Cohort of HIV Outpatients Men Who Have Sex With Men</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>DRIVER</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3236,36 +3531,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT00896714</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Impact of Environmental and Demographic Factors on Pre-operative Doses of Anesthetic Agents (Prospective Multicenter Study)</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>PosoAnes</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3284,36 +3584,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT03359512</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Comparison of Two Electroencephalograms (EEG) Monitors in Patients Undergoing General Anesthesia With Sevoflurane</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>Bis-qCon-Hal</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3332,36 +3637,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT02237976</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Interest of Learning Self-hypnosis in Patients Awaiting Lung Transplantation</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>SelfHypTp</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3380,36 +3690,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT02853188</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Does the Measure of the Plasma Tissue Factor Allow to Predict a Venous Thromboembolism Episode for Patients Presenting a Primitive Lung Cancer?</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>FT-KBP</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3428,36 +3743,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT02438657</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Ultrasound-guided Median Nerve Block With Dextrose 5% Hydrodissection: Determination of the Minimal Effective Volume of Local Anesthetic</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>VMAL</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" t="b">
         <v>1</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3476,36 +3796,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT03753217</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Assessment of the Depth of Anesthesia During Intravenous Anesthesia: Comparison of the Bispectral Index Monitor and the qCON Monitor.</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>Bis-qCON-IV</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3524,36 +3849,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT02362815</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Fluid Intake During Labour, Ultrasound Evaluation</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>EGTO</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
       <c r="J66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3572,36 +3902,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT02928003</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Chronic Neuropathic Pain After Lung Surgery: Prevalence and Predictive Factors</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>DOLORPOUMON</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3620,36 +3955,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT03901586</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Satisfaction and Long-term Anatomic Efficacy Study on Patients Who Underwent a Richter Intervention in the Obstetric and Gynecology Department of Foch Hospital Since 2008</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>RICHTER</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3668,36 +4008,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT02926144</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Can the Use of the McGRATH® MAC Videolaryngoscope Decrease the Number of People Required for Tracheal Intubation in a Population of Patients Without Predicted Difficult Intubation?</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>MGM3</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>1</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3716,36 +4061,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT03036774</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Quantitative Ultrasound Assessment of Gastric Volume in Diabetic and Non Diabetic Patients Scheduled for a General Anesthesia</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>ECHODIABETE</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3764,36 +4114,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT03991767</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Implementation and Evaluation of an Electronic Alert to Encourage Targeted Screening for HIV Infection at Foch Hospital According to Socio-demographic Criteria: Pilot Study</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>POP-UP</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3812,36 +4167,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT04418973</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Analysis of Breath Volatile Organic Compounds After Dyspnea Induced in the Healthy Subject, by a Threshold Inspiratory Load and During a Maximal Breath Holding.</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>Volatopnee</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3860,36 +4220,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT03755817</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Immediate Efficacy Assessment of SCENAR's Session on a Common Spinal Pain Syndrome</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>SCENAR1</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3908,36 +4273,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT03290885</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Combined Use of Contact Aspiration and the Stent Retriever Technique Versus Stent Retriever Alone for Recanalisation in Acute Cerebral Infarction: the Randomized ASTER2 Study</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>ASTER2</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
       <c r="J74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>1</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>COMBINATION_PRODUCT</t>
         </is>
@@ -3956,36 +4326,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT02594059</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Assessment of Peripheral Endothelial Function in Idiopathic Pulmonary Fibrosis</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>Endoth-FPI</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4004,36 +4379,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT03167528</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Contribution of Learning and Practice of Different Complementary Therapies in Pulmonary Transplant Patients</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>TOOLBOX</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4052,36 +4432,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT03036761</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Interest of Auriculotherapy in Prophylaxis of Migraine and Headache in Patients With Migraines</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>Migauric</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4100,28 +4485,30 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT02235142</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Localised Cancer of Prostate and Androgen Deficiency.</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>AndroCan</t>
         </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
       </c>
       <c r="J78" t="b">
         <v>1</v>
@@ -4129,7 +4516,10 @@
       <c r="K78" t="b">
         <v>1</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4148,36 +4538,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT04614883</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Analysis of Volatile Organic Compounds in Exhaled Air and in Sweat in Patients Referred to the Emergency Reception Service for Suspected COVID-19 Infection: Diagnostic Value and for Rapid Screening</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>VOC-COVID-Diag</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4196,36 +4591,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT05009628</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Is Routine Postoperative Oxygen Therapy Still Necessary in 2020?</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>FreeO2</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4244,36 +4644,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT02767791</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Auriculotherapy and Acupuncture's Treatment for Chemotherapy-induced Nausea and Vomiting (CINV)</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>NVCI</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4292,36 +4697,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT04726111</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>COVID-19 and Pregnancy: Placental and Immunological Impacts</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>MaterCov</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4340,36 +4750,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT04379154</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Analysis of Volatile Organic Compounds by Electronic Noses in Hospitalised Patients for an Infection by (SARS-CoV-2): Predictive Interest in Short-term Evolution</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>VOC-COVID</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4388,36 +4803,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>NCT04526041</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Language and Music, Speech and the Human Beatbox: Theoretical Issues for Research in General and Applied Linguistics; Monocentric Exploratory Study</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>HBB</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4436,32 +4856,37 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT04526054</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Longitudinal and Comparative Study of Morphological Abnormalities of the Olfactory Bulb on MRI and Olfactometry in Anosmic Versus Normosmic COVID-19 Patients</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4480,36 +4905,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT03126136</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Predictive Value of a Postural Test on Pulse Pressure Variation During Labor With Epidural Analgesia on Fetal Heart Rate Abnormalities</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>PP-PERI</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4528,36 +4958,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT04541511</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Comparison of the 6-minute Walking Test in a Corridor and on a Non-motorized Treadmill, Feasibility Study</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>TDM6</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4576,36 +5011,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT04479540</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Assessment of the Risk of Pulmonary Embolism and Coagulation Profile in Patients With SARS Coronavirus (COV-2) Lung Disease</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>COVIDEP</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -4624,28 +5064,30 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT04585178</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Detection of Postoperative Complications and Particularly Hemodynamic Ones Through Continuous Monitoring Using the Biobeat Patch</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>Biobeat-Postop</t>
         </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
       </c>
       <c r="J89" t="b">
         <v>1</v>
@@ -4653,7 +5095,10 @@
       <c r="K89" t="b">
         <v>1</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4672,32 +5117,37 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT02764788</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
         <is>
           <t>Fib-Auric</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4716,36 +5166,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>NCT04613297</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>HLA-G Immuno-Inhibitor Checkpoint Study in Patients With COVID-19 Infection: Molecular and Cellular Assessment</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>HLA-G-COVID</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4764,36 +5219,41 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>NCT04165161</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Performance Diagnosis of a Patent Foramen Ovale During Lung Transplantation Using Transesophageal Echocardiography: Comparison of the Injection of Contrast in the Upper and Lower Caval Territories (FOP-TP)</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>FOP-TP</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4812,36 +5272,41 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>NCT02988830</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Impact of Subcutaneous Electric Lumbar Stimulation on Treatment of Refractory Chronic and Disabling Lumbago</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>IMESCUT</t>
         </is>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
       <c r="J93" t="b">
         <v>0</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4860,36 +5325,41 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>NCT04880330</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Interest of an Auriculotherapy Session in Smoking Cessation Controlled, Randomized, Single-blind Study: Proof of Concept Study</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>StopAuric</t>
         </is>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4908,36 +5378,41 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>NCT04821115</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Safety and Efficacy of Low-intensity Shockwave Therapy for Peyronie's Disease</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>ONDELA</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>

--- a/publipostage2/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
+++ b/publipostage2/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
+++ b/publipostage2/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
+++ b/publipostage2/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
@@ -67,7 +67,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00392158</t>

--- a/publipostage2/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
+++ b/publipostage2/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
@@ -67,276 +67,276 @@
     <t>1: résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
+    <t>NCT00393003</t>
+  </si>
+  <si>
+    <t>NCT00391885</t>
+  </si>
+  <si>
     <t>NCT00392158</t>
   </si>
   <si>
-    <t>NCT00391885</t>
-  </si>
-  <si>
-    <t>NCT00393003</t>
-  </si>
-  <si>
     <t>NCT00571181</t>
   </si>
   <si>
     <t>NCT00547209</t>
   </si>
   <si>
+    <t>NCT00627081</t>
+  </si>
+  <si>
     <t>NCT00921284</t>
   </si>
   <si>
+    <t>NCT01041872</t>
+  </si>
+  <si>
+    <t>NCT00772616</t>
+  </si>
+  <si>
+    <t>NCT01161004</t>
+  </si>
+  <si>
+    <t>NCT00809393</t>
+  </si>
+  <si>
+    <t>NCT01321580</t>
+  </si>
+  <si>
     <t>NCT01058525</t>
   </si>
   <si>
-    <t>NCT00627081</t>
-  </si>
-  <si>
-    <t>NCT01321580</t>
-  </si>
-  <si>
-    <t>NCT01041872</t>
-  </si>
-  <si>
-    <t>NCT00772616</t>
-  </si>
-  <si>
-    <t>NCT01161004</t>
-  </si>
-  <si>
-    <t>NCT00809393</t>
-  </si>
-  <si>
     <t>NCT03357900</t>
   </si>
   <si>
+    <t>NCT01750970</t>
+  </si>
+  <si>
+    <t>NCT00969683</t>
+  </si>
+  <si>
     <t>NCT01782846</t>
   </si>
   <si>
-    <t>NCT01750970</t>
-  </si>
-  <si>
     <t>NCT01648725</t>
   </si>
   <si>
-    <t>NCT00969683</t>
+    <t>NCT02951442</t>
+  </si>
+  <si>
+    <t>NCT01801137</t>
+  </si>
+  <si>
+    <t>NCT01592162</t>
+  </si>
+  <si>
+    <t>NCT01791166</t>
+  </si>
+  <si>
+    <t>NCT02986880</t>
+  </si>
+  <si>
+    <t>NCT02077101</t>
+  </si>
+  <si>
+    <t>NCT02934295</t>
+  </si>
+  <si>
+    <t>NCT01654913</t>
+  </si>
+  <si>
+    <t>NCT02040948</t>
+  </si>
+  <si>
+    <t>NCT01949181</t>
   </si>
   <si>
     <t>NCT02663284</t>
   </si>
   <si>
-    <t>NCT01949181</t>
-  </si>
-  <si>
-    <t>NCT01791166</t>
-  </si>
-  <si>
-    <t>NCT01654913</t>
-  </si>
-  <si>
-    <t>NCT02077101</t>
-  </si>
-  <si>
-    <t>NCT02951442</t>
-  </si>
-  <si>
-    <t>NCT02934295</t>
-  </si>
-  <si>
-    <t>NCT02986880</t>
-  </si>
-  <si>
-    <t>NCT01592162</t>
-  </si>
-  <si>
-    <t>NCT02040948</t>
-  </si>
-  <si>
-    <t>NCT01801137</t>
+    <t>NCT01891838</t>
+  </si>
+  <si>
+    <t>NCT02902471</t>
+  </si>
+  <si>
+    <t>NCT01597466</t>
+  </si>
+  <si>
+    <t>NCT02245789</t>
+  </si>
+  <si>
+    <t>NCT01198639</t>
+  </si>
+  <si>
+    <t>NCT02593344</t>
+  </si>
+  <si>
+    <t>NCT01807975</t>
+  </si>
+  <si>
+    <t>NCT00886418</t>
   </si>
   <si>
     <t>NCT01154738</t>
   </si>
   <si>
-    <t>NCT01891838</t>
-  </si>
-  <si>
-    <t>NCT02593344</t>
-  </si>
-  <si>
-    <t>NCT01597466</t>
-  </si>
-  <si>
-    <t>NCT01198639</t>
-  </si>
-  <si>
-    <t>NCT02245789</t>
+    <t>NCT01876290</t>
   </si>
   <si>
     <t>NCT02564185</t>
   </si>
   <si>
+    <t>NCT02249364</t>
+  </si>
+  <si>
     <t>NCT01579851</t>
   </si>
   <si>
-    <t>NCT00886418</t>
-  </si>
-  <si>
-    <t>NCT02902471</t>
-  </si>
-  <si>
-    <t>NCT02249364</t>
-  </si>
-  <si>
-    <t>NCT01876290</t>
-  </si>
-  <si>
-    <t>NCT01807975</t>
+    <t>NCT02906436</t>
+  </si>
+  <si>
+    <t>NCT01732133</t>
+  </si>
+  <si>
+    <t>NCT02902627</t>
+  </si>
+  <si>
+    <t>NCT02899494</t>
+  </si>
+  <si>
+    <t>NCT02834273</t>
   </si>
   <si>
     <t>NCT02905695</t>
   </si>
   <si>
-    <t>NCT02906436</t>
-  </si>
-  <si>
-    <t>NCT02899494</t>
-  </si>
-  <si>
-    <t>NCT02902627</t>
-  </si>
-  <si>
-    <t>NCT02834273</t>
-  </si>
-  <si>
-    <t>NCT01732133</t>
+    <t>NCT02778243</t>
   </si>
   <si>
     <t>NCT02290054</t>
   </si>
   <si>
-    <t>NCT02778243</t>
-  </si>
-  <si>
     <t>NCT02793245</t>
   </si>
   <si>
+    <t>NCT02413632</t>
+  </si>
+  <si>
+    <t>NCT02934308</t>
+  </si>
+  <si>
+    <t>NCT00896714</t>
+  </si>
+  <si>
+    <t>NCT02897882</t>
+  </si>
+  <si>
+    <t>NCT02593357</t>
+  </si>
+  <si>
     <t>NCT02878551</t>
   </si>
   <si>
-    <t>NCT02593357</t>
-  </si>
-  <si>
-    <t>NCT02897882</t>
-  </si>
-  <si>
-    <t>NCT02934308</t>
-  </si>
-  <si>
-    <t>NCT02413632</t>
-  </si>
-  <si>
-    <t>NCT00896714</t>
+    <t>NCT03753217</t>
+  </si>
+  <si>
+    <t>NCT02853188</t>
+  </si>
+  <si>
+    <t>NCT02438657</t>
   </si>
   <si>
     <t>NCT03359512</t>
   </si>
   <si>
+    <t>NCT02362815</t>
+  </si>
+  <si>
     <t>NCT02237976</t>
   </si>
   <si>
-    <t>NCT02853188</t>
-  </si>
-  <si>
-    <t>NCT02438657</t>
-  </si>
-  <si>
-    <t>NCT03753217</t>
-  </si>
-  <si>
-    <t>NCT02362815</t>
+    <t>NCT03036774</t>
+  </si>
+  <si>
+    <t>NCT03901586</t>
+  </si>
+  <si>
+    <t>NCT02926144</t>
+  </si>
+  <si>
+    <t>NCT03991767</t>
   </si>
   <si>
     <t>NCT02928003</t>
   </si>
   <si>
-    <t>NCT03901586</t>
-  </si>
-  <si>
-    <t>NCT02926144</t>
-  </si>
-  <si>
-    <t>NCT03036774</t>
-  </si>
-  <si>
-    <t>NCT03991767</t>
+    <t>NCT03290885</t>
+  </si>
+  <si>
+    <t>NCT03755817</t>
+  </si>
+  <si>
+    <t>NCT03167528</t>
+  </si>
+  <si>
+    <t>NCT02594059</t>
   </si>
   <si>
     <t>NCT04418973</t>
   </si>
   <si>
-    <t>NCT03755817</t>
-  </si>
-  <si>
-    <t>NCT03290885</t>
-  </si>
-  <si>
-    <t>NCT02594059</t>
-  </si>
-  <si>
-    <t>NCT03167528</t>
+    <t>NCT04526041</t>
+  </si>
+  <si>
+    <t>NCT02235142</t>
   </si>
   <si>
     <t>NCT03036761</t>
   </si>
   <si>
-    <t>NCT02235142</t>
-  </si>
-  <si>
     <t>NCT04614883</t>
   </si>
   <si>
     <t>NCT05009628</t>
   </si>
   <si>
+    <t>NCT04726111</t>
+  </si>
+  <si>
+    <t>NCT04526054</t>
+  </si>
+  <si>
+    <t>NCT04379154</t>
+  </si>
+  <si>
     <t>NCT02767791</t>
   </si>
   <si>
-    <t>NCT04726111</t>
-  </si>
-  <si>
-    <t>NCT04379154</t>
-  </si>
-  <si>
-    <t>NCT04526041</t>
-  </si>
-  <si>
-    <t>NCT04526054</t>
-  </si>
-  <si>
     <t>NCT03126136</t>
   </si>
   <si>
+    <t>NCT04165161</t>
+  </si>
+  <si>
     <t>NCT04541511</t>
   </si>
   <si>
+    <t>NCT04585178</t>
+  </si>
+  <si>
+    <t>NCT02988830</t>
+  </si>
+  <si>
     <t>NCT04479540</t>
   </si>
   <si>
-    <t>NCT04585178</t>
-  </si>
-  <si>
     <t>NCT02764788</t>
   </si>
   <si>
     <t>NCT04613297</t>
   </si>
   <si>
-    <t>NCT04165161</t>
-  </si>
-  <si>
-    <t>NCT02988830</t>
-  </si>
-  <si>
     <t>NCT04880330</t>
   </si>
   <si>
@@ -400,300 +400,300 @@
     <t>2024</t>
   </si>
   <si>
+    <t>Target-controlled Infusion of Propofol and Remifentanil for Postoperative Sedation Guided by the Bispectral Index: Comparison Between Manual Perfusion and Automated Perfusion</t>
+  </si>
+  <si>
+    <t>Target-controlled Infusion of Propofol and Remifentanil During General Anaesthesia Guided by Entropy of the Electroencephalogram: Comparison Between Manual Perfusion and Automated Perfusion</t>
+  </si>
+  <si>
     <t>Target-controlled Infusion of Propofol and Remifentanil During General Anaesthesia Guided by the Index Bispectral: Comparison Between Manual Perfusion and Automated Perfusion</t>
   </si>
   <si>
-    <t>Target-controlled Infusion of Propofol and Remifentanil During General Anaesthesia Guided by Entropy of the Electroencephalogram: Comparison Between Manual Perfusion and Automated Perfusion</t>
-  </si>
-  <si>
-    <t>Target-controlled Infusion of Propofol and Remifentanil for Postoperative Sedation Guided by the Bispectral Index: Comparison Between Manual Perfusion and Automated Perfusion</t>
-  </si>
-  <si>
     <t>Target-Controlled Infusion of Propofol and Remifentanil During General Anaesthesia Guided by the Index Bispectral: Comparison Between Manual Perfusion and Automated Perfusion During Rigid Bronchoscopy</t>
   </si>
   <si>
+    <t>Anesthésie Totale Intraveineuse en " Boucle d'Asservissement " guidée Par l'Index Bispectral : Effet de l'Adjonction de Protoxyde d'Azote (Effect of Nitrous Oxide on Intravenous Closed-loop Anesthesia)</t>
+  </si>
+  <si>
     <t>Evaluation de l’effet anesthésique du protoxyde d’azote dans une population d’opérés recevant une anesthésie totale intraveineuse en « boucle » guidée par l’index bispectral (Effect of nitrous oxide on intra-venous closed-loop anesthesia)</t>
   </si>
   <si>
-    <t>Anesthésie Totale Intraveineuse en " Boucle d'Asservissement " guidée Par l'Index Bispectral : Effet de l'Adjonction de Protoxyde d'Azote (Effect of Nitrous Oxide on Intravenous Closed-loop Anesthesia)</t>
+    <t>Intravenous Opioid-sparing Effect of Thoracic Epidural Administration of Chirocaine (5 mg/ml) During Thoracotomy</t>
   </si>
   <si>
     <t>Closed-Loop Delivery of Propofol and Remifentanil: Sparing Effect of Dexmedetomidine</t>
   </si>
   <si>
+    <t>Dose-effect of Propofol for Anesthetic Induction: Double-blind Comparison of Different Propofol Formulations Administered Alone or With Lidocaine</t>
+  </si>
+  <si>
+    <t>Influence of Intraoperative Analgesia (Sufentanil Administered According to the Usual Criteria or Remifentanil Administered by a Closed-loop System Using Bispectral Index as the Controller) on the Postoperative Morphine Consumption</t>
+  </si>
+  <si>
+    <t>Pilot Study of EEG Signs of Awakening Secondary to Injection of Sugammadex: Evaluation by Recording Bispectral Index and NeuroSENSE (Prospective, Double-blind Study)</t>
+  </si>
+  <si>
+    <t>Comparison of Two Tranexamic Acid Dose Regimens on Transfusion Needs During Cardiac Surgery With Cardiopulmonary Bypass</t>
+  </si>
+  <si>
+    <t>Comparison of the Hemoglobin Results Obtained With the Masimo Pronto 7 and the Clinical Laboratory Measurement Study</t>
+  </si>
+  <si>
     <t>Influence of Ultrasonographic Hydro-dissection With Glucose 5% Solution on Median Nerve Block Efficiency: a Prospective and Randomized Study</t>
   </si>
   <si>
-    <t>Intravenous Opioid-sparing Effect of Thoracic Epidural Administration of Chirocaine (5 mg/ml) During Thoracotomy</t>
-  </si>
-  <si>
-    <t>Comparison of the Hemoglobin Results Obtained With the Masimo Pronto 7 and the Clinical Laboratory Measurement Study</t>
-  </si>
-  <si>
-    <t>Dose-effect of Propofol for Anesthetic Induction: Double-blind Comparison of Different Propofol Formulations Administered Alone or With Lidocaine</t>
-  </si>
-  <si>
-    <t>Influence of Intraoperative Analgesia (Sufentanil Administered According to the Usual Criteria or Remifentanil Administered by a Closed-loop System Using Bispectral Index as the Controller) on the Postoperative Morphine Consumption</t>
-  </si>
-  <si>
-    <t>Pilot Study of EEG Signs of Awakening Secondary to Injection of Sugammadex: Evaluation by Recording Bispectral Index and NeuroSENSE (Prospective, Double-blind Study)</t>
-  </si>
-  <si>
-    <t>Comparison of Two Tranexamic Acid Dose Regimens on Transfusion Needs During Cardiac Surgery With Cardiopulmonary Bypass</t>
-  </si>
-  <si>
     <t>Closed-loop Anaesthesia for Liver Transplantation: a Pilot Study</t>
   </si>
   <si>
+    <t>Endoscopic Resection of High Grade(TA, T1, Cis)Non-muscle Invasive Bladder Tumors: Modification of Usual Management of This Resection by Using the Blue Light and Evaluation of the Outcome: Should we Maintain the Dogma of Second Endoscopic Resection as a Principle?</t>
+  </si>
+  <si>
+    <t>Comparison Between Left Double-lumen Tube With or Without a Carinal Hook During Lung Surgery</t>
+  </si>
+  <si>
     <t>Double Blind-randomized Study Comparing the Efficacy of Two Analgesia (Ixprim® and Dafalgan-Codeine®) , in the Emergency Unit.</t>
   </si>
   <si>
-    <t>Endoscopic Resection of High Grade(TA, T1, Cis)Non-muscle Invasive Bladder Tumors: Modification of Usual Management of This Resection by Using the Blue Light and Evaluation of the Outcome: Should we Maintain the Dogma of Second Endoscopic Resection as a Principle?</t>
-  </si>
-  <si>
     <t>Influence of Hypnosis on the Propofol Requirement to Induce General Anesthesia</t>
   </si>
   <si>
-    <t>Comparison Between Left Double-lumen Tube With or Without a Carinal Hook During Lung Surgery</t>
+    <t>Identification of Markers (Klotho-FGF23 Axis) as Determinant in the Evolution of Arterial Stiffness During the First Year of Renal Transplant</t>
+  </si>
+  <si>
+    <t>A Multicentre Phase III Trial to Determine the Efficacy of RAD 001 (Everolimus, Afinitor) as Second Line Therapy in Patients With Transitional Cell Carcinoma TCC of the Urothelium Which Failed or Progressed After First Line Chemotherapy</t>
+  </si>
+  <si>
+    <t>Dose-effect of Propofol for Anesthetic Induction: Double-blind Comparison of Different Propofol Formulations Administered Alone or With Remifentanil</t>
+  </si>
+  <si>
+    <t>Humoral Rejection - Diagnostic Markers in Pulmonary Transplant.</t>
+  </si>
+  <si>
+    <t>A Dose-response, Randomized, Double-blind Study to Evaluate the Effect of Type-A Botulinum Toxin in the Post-radiosurgical Neck Contractures</t>
+  </si>
+  <si>
+    <t>Representations and Acceptability of HIV Therapeutic Vaccine in a Cohort of HIV-1 Infected Outpatients Followed at Hospital : Multicentric Interventional Study Qualitative and Quantitative</t>
+  </si>
+  <si>
+    <t>Study of Rubella Immunity. Response to Vaccination of Subjects With Very Low, Equivocal or Undetectable Titers of Rubella Virus Antibodies</t>
+  </si>
+  <si>
+    <t>Influence of the Inspired Oxygen Fraction on the Noninvasive Measurement of Hemoglobin Using Two Different Devices (Namely Pronto 7 and NBM-200)</t>
+  </si>
+  <si>
+    <t>A multicentre phase II trial to determine the efficacy of RAD 001 (everolimus, Afinitor®) as second line therapy in patients with transitional cell carcinoma (TCC) of the urothelium which failed or progressed after first line chemotherapy.</t>
+  </si>
+  <si>
+    <t>Accuracy of Pulse Pressure Variation (Nexfin) and of Pleth Variability Index (Radical 7) to Predict the Response to a Fluid Challenge: Comparison With the Reference Method (Measurement of Stroke Volume by Esophageal Doppler)</t>
+  </si>
+  <si>
+    <t>Relationship Between Blood, Hair and Lung Metals/Metalloids Concentration (Cadmium, Iron, Copper, Nickel, Chrome, Arsenic, Vanadium, Beryllium, and Zinc) and Lung Cancer or Chronic Obstructive Pulmonary Disease.</t>
   </si>
   <si>
     <t>Evaluation of Non-invasive Monitor of Physiodoloris Pain in Patients With Complex Regional Pain Syndrome Treated by Nerve Block (Prospective Monocenter Study)</t>
   </si>
   <si>
-    <t>Relationship Between Blood, Hair and Lung Metals/Metalloids Concentration (Cadmium, Iron, Copper, Nickel, Chrome, Arsenic, Vanadium, Beryllium, and Zinc) and Lung Cancer or Chronic Obstructive Pulmonary Disease.</t>
-  </si>
-  <si>
-    <t>Humoral Rejection - Diagnostic Markers in Pulmonary Transplant.</t>
-  </si>
-  <si>
-    <t>Influence of the Inspired Oxygen Fraction on the Noninvasive Measurement of Hemoglobin Using Two Different Devices (Namely Pronto 7 and NBM-200)</t>
-  </si>
-  <si>
-    <t>A multicentre phase II trial to determine the efficacy of RAD 001 (everolimus, Afinitor®) as second line therapy in patients with transitional cell carcinoma (TCC) of the urothelium which failed or progressed after first line chemotherapy.</t>
-  </si>
-  <si>
-    <t>Representations and Acceptability of HIV Therapeutic Vaccine in a Cohort of HIV-1 Infected Outpatients Followed at Hospital : Multicentric Interventional Study Qualitative and Quantitative</t>
-  </si>
-  <si>
-    <t>Identification of Markers (Klotho-FGF23 Axis) as Determinant in the Evolution of Arterial Stiffness During the First Year of Renal Transplant</t>
-  </si>
-  <si>
-    <t>Study of Rubella Immunity. Response to Vaccination of Subjects With Very Low, Equivocal or Undetectable Titers of Rubella Virus Antibodies</t>
-  </si>
-  <si>
-    <t>A Dose-response, Randomized, Double-blind Study to Evaluate the Effect of Type-A Botulinum Toxin in the Post-radiosurgical Neck Contractures</t>
-  </si>
-  <si>
-    <t>Dose-effect of Propofol for Anesthetic Induction: Double-blind Comparison of Different Propofol Formulations Administered Alone or With Remifentanil</t>
-  </si>
-  <si>
-    <t>Accuracy of Pulse Pressure Variation (Nexfin) and of Pleth Variability Index (Radical 7) to Predict the Response to a Fluid Challenge: Comparison With the Reference Method (Measurement of Stroke Volume by Esophageal Doppler)</t>
-  </si>
-  <si>
-    <t>A Multicentre Phase III Trial to Determine the Efficacy of RAD 001 (Everolimus, Afinitor) as Second Line Therapy in Patients With Transitional Cell Carcinoma TCC of the Urothelium Which Failed or Progressed After First Line Chemotherapy</t>
+    <t>Transsphenoidal Surgery for Pituitary Adenomas: Influence of the Ventilation Mode on Intraoperative Bleeding</t>
+  </si>
+  <si>
+    <t>Functional Evaluation of Distal Airways by Forced Oscillations: Diagnosis Help in Bronchiolitis Obliterans Syndrome in Post Bone Marrow Transplantation</t>
+  </si>
+  <si>
+    <t>A Comparison Study of Two Different Techniques for Identifying the Epidural Space in Patients Requiring Thoracic Epidural Analgesia: a Prospective Multicentric Randomized Study</t>
+  </si>
+  <si>
+    <t>Does the Use of a Videolaryngoscope Modifies Anesthetic Induction ?</t>
+  </si>
+  <si>
+    <t>One-year Mortality According to the Method of Total Intravenous Anesthesia. A Prospective, Randomized and Multicenter Study</t>
+  </si>
+  <si>
+    <t>Peripheral Endothelial Function in Asthmatic Patients</t>
+  </si>
+  <si>
+    <t>Effect of Continuous Myorelaxation on the Need for Hypnotic Agent During Surgical Procedures Which do Not Require it (Multicenter, Randomized and Prospective Study)</t>
   </si>
   <si>
     <t>Influence of Lidocaine on a Closed-Loop Anesthesia System</t>
   </si>
   <si>
-    <t>Transsphenoidal Surgery for Pituitary Adenomas: Influence of the Ventilation Mode on Intraoperative Bleeding</t>
-  </si>
-  <si>
-    <t>Peripheral Endothelial Function in Asthmatic Patients</t>
-  </si>
-  <si>
-    <t>A Comparison Study of Two Different Techniques for Identifying the Epidural Space in Patients Requiring Thoracic Epidural Analgesia: a Prospective Multicentric Randomized Study</t>
-  </si>
-  <si>
-    <t>One-year Mortality According to the Method of Total Intravenous Anesthesia. A Prospective, Randomized and Multicenter Study</t>
-  </si>
-  <si>
-    <t>Does the Use of a Videolaryngoscope Modifies Anesthetic Induction ?</t>
+    <t>Should we Associate Dexamethasone and Ondansetron to Closed-loop Anesthesia to Reduce the Incidence of Postoperative Nausea and Vomiting After Bariatric Surgery?</t>
   </si>
   <si>
     <t>Prospective, Randomized Study of the Impact of a Education Program for Patients Suffering From Low Back Pain</t>
   </si>
   <si>
+    <t>Interest of Hypnosis Before the Induction of Anesthesia. Study in Women Submitted to One Day Gynecological Surgical Procedures</t>
+  </si>
+  <si>
     <t>Recovery After Sugammadex(TIVA Using Propofol vs Inhalation Anesthesia Using Sevoflurane)</t>
   </si>
   <si>
-    <t>Effect of Continuous Myorelaxation on the Need for Hypnotic Agent During Surgical Procedures Which do Not Require it (Multicenter, Randomized and Prospective Study)</t>
-  </si>
-  <si>
-    <t>Functional Evaluation of Distal Airways by Forced Oscillations: Diagnosis Help in Bronchiolitis Obliterans Syndrome in Post Bone Marrow Transplantation</t>
-  </si>
-  <si>
-    <t>Interest of Hypnosis Before the Induction of Anesthesia. Study in Women Submitted to One Day Gynecological Surgical Procedures</t>
-  </si>
-  <si>
-    <t>Should we Associate Dexamethasone and Ondansetron to Closed-loop Anesthesia to Reduce the Incidence of Postoperative Nausea and Vomiting After Bariatric Surgery?</t>
+    <t>Pilot Study of Lung Transplantation After Ex-Vivo Lung Reconditioning</t>
+  </si>
+  <si>
+    <t>Evaluation of the System NEXFIN for Continuous and Non-invasive Measure of the Blood Pressure During Cesarean Delivery Practised Under Spinal Anesthesia</t>
+  </si>
+  <si>
+    <t>Pain in Oncolgy: Evaluation of a Non Invasive Monitoring Device (ANI). A Monocentric Prospective Study</t>
+  </si>
+  <si>
+    <t>Effect of the "Adjusted Vocal Expression" Method on the Satisfaction of Parturients About Their Childbirth (NaîtreEnchanté)</t>
+  </si>
+  <si>
+    <t>Impact of Patient Education Following a Stroke on Knowledge of Risk Factors, Stroke Warning Signs and What to do in Cases of Stroke</t>
   </si>
   <si>
     <t>Contribution of the Local Infiltration of Chirocaine® in the Management of the Post-partum Perineal Pain After Episiotomy or First-degree Tear</t>
   </si>
   <si>
-    <t>Pilot Study of Lung Transplantation After Ex-Vivo Lung Reconditioning</t>
-  </si>
-  <si>
-    <t>Effect of the "Adjusted Vocal Expression" Method on the Satisfaction of Parturients About Their Childbirth (NaîtreEnchanté)</t>
-  </si>
-  <si>
-    <t>Pain in Oncolgy: Evaluation of a Non Invasive Monitoring Device (ANI). A Monocentric Prospective Study</t>
-  </si>
-  <si>
-    <t>Impact of Patient Education Following a Stroke on Knowledge of Risk Factors, Stroke Warning Signs and What to do in Cases of Stroke</t>
-  </si>
-  <si>
-    <t>Evaluation of the System NEXFIN for Continuous and Non-invasive Measure of the Blood Pressure During Cesarean Delivery Practised Under Spinal Anesthesia</t>
-  </si>
-  <si>
     <t>Auriculotherapy for Prevention of Postoperative Urinary Retention in Men Receiving Postoperative Epidural Analgesia After Thoracic Surgery</t>
   </si>
   <si>
     <t>Influence of Patient Characteristics on the Tracheobronchial Anatomy Evaluated by a CT Examination</t>
   </si>
   <si>
+    <t>Asymptomatic Sexually Transmitted Infections (STI) : Comparison of Two Screening Strategies Routine Screening Versus Screening as Reported by the Risks Taken by the Patient, in a Cohort of HIV Outpatients Men Who Have Sex With Men</t>
+  </si>
+  <si>
+    <t>Comparison of the Skin Conductance Values and Patient Pain Scores During Minor Procedures in the ICU</t>
+  </si>
+  <si>
+    <t>Impact of Environmental and Demographic Factors on Pre-operative Doses of Anesthetic Agents (Prospective Multicenter Study)</t>
+  </si>
+  <si>
+    <t>Acute and Chronic Pain in Lung Transplantation: Prevalence, Associated Factors, Medical Care</t>
+  </si>
+  <si>
+    <t>Assessment of a Peripheral Endothelial Dysfunction in COPD (Chronic Obstructive Pulmonary Disease)</t>
+  </si>
+  <si>
     <t>Evaluation of the Benefits of a Program of Prehabilitation: Pilot Study</t>
   </si>
   <si>
-    <t>Assessment of a Peripheral Endothelial Dysfunction in COPD (Chronic Obstructive Pulmonary Disease)</t>
-  </si>
-  <si>
-    <t>Acute and Chronic Pain in Lung Transplantation: Prevalence, Associated Factors, Medical Care</t>
-  </si>
-  <si>
-    <t>Comparison of the Skin Conductance Values and Patient Pain Scores During Minor Procedures in the ICU</t>
-  </si>
-  <si>
-    <t>Asymptomatic Sexually Transmitted Infections (STI) : Comparison of Two Screening Strategies Routine Screening Versus Screening as Reported by the Risks Taken by the Patient, in a Cohort of HIV Outpatients Men Who Have Sex With Men</t>
-  </si>
-  <si>
-    <t>Impact of Environmental and Demographic Factors on Pre-operative Doses of Anesthetic Agents (Prospective Multicenter Study)</t>
+    <t>Assessment of the Depth of Anesthesia During Intravenous Anesthesia: Comparison of the Bispectral Index Monitor and the qCON Monitor.</t>
+  </si>
+  <si>
+    <t>Does the Measure of the Plasma Tissue Factor Allow to Predict a Venous Thromboembolism Episode for Patients Presenting a Primitive Lung Cancer?</t>
+  </si>
+  <si>
+    <t>Ultrasound-guided Median Nerve Block With Dextrose 5% Hydrodissection: Determination of the Minimal Effective Volume of Local Anesthetic</t>
   </si>
   <si>
     <t>Comparison of Two Electroencephalograms (EEG) Monitors in Patients Undergoing General Anesthesia With Sevoflurane</t>
   </si>
   <si>
+    <t>Fluid Intake During Labour, Ultrasound Evaluation</t>
+  </si>
+  <si>
     <t>Interest of Learning Self-hypnosis in Patients Awaiting Lung Transplantation</t>
   </si>
   <si>
-    <t>Does the Measure of the Plasma Tissue Factor Allow to Predict a Venous Thromboembolism Episode for Patients Presenting a Primitive Lung Cancer?</t>
-  </si>
-  <si>
-    <t>Ultrasound-guided Median Nerve Block With Dextrose 5% Hydrodissection: Determination of the Minimal Effective Volume of Local Anesthetic</t>
-  </si>
-  <si>
-    <t>Assessment of the Depth of Anesthesia During Intravenous Anesthesia: Comparison of the Bispectral Index Monitor and the qCON Monitor.</t>
-  </si>
-  <si>
-    <t>Fluid Intake During Labour, Ultrasound Evaluation</t>
+    <t>Quantitative Ultrasound Assessment of Gastric Volume in Diabetic and Non Diabetic Patients Scheduled for a General Anesthesia</t>
+  </si>
+  <si>
+    <t>Satisfaction and Long-term Anatomic Efficacy Study on Patients Who Underwent a Richter Intervention in the Obstetric and Gynecology Department of Foch Hospital Since 2008</t>
+  </si>
+  <si>
+    <t>Can the Use of the McGRATH® MAC Videolaryngoscope Decrease the Number of People Required for Tracheal Intubation in a Population of Patients Without Predicted Difficult Intubation?</t>
+  </si>
+  <si>
+    <t>Implementation and Evaluation of an Electronic Alert to Encourage Targeted Screening for HIV Infection at Foch Hospital According to Socio-demographic Criteria: Pilot Study</t>
   </si>
   <si>
     <t>Chronic Neuropathic Pain After Lung Surgery: Prevalence and Predictive Factors</t>
   </si>
   <si>
-    <t>Satisfaction and Long-term Anatomic Efficacy Study on Patients Who Underwent a Richter Intervention in the Obstetric and Gynecology Department of Foch Hospital Since 2008</t>
-  </si>
-  <si>
-    <t>Can the Use of the McGRATH® MAC Videolaryngoscope Decrease the Number of People Required for Tracheal Intubation in a Population of Patients Without Predicted Difficult Intubation?</t>
-  </si>
-  <si>
-    <t>Quantitative Ultrasound Assessment of Gastric Volume in Diabetic and Non Diabetic Patients Scheduled for a General Anesthesia</t>
-  </si>
-  <si>
-    <t>Implementation and Evaluation of an Electronic Alert to Encourage Targeted Screening for HIV Infection at Foch Hospital According to Socio-demographic Criteria: Pilot Study</t>
+    <t>Combined Use of Contact Aspiration and the Stent Retriever Technique Versus Stent Retriever Alone for Recanalisation in Acute Cerebral Infarction: the Randomized ASTER2 Study</t>
+  </si>
+  <si>
+    <t>Immediate Efficacy Assessment of SCENAR's Session on a Common Spinal Pain Syndrome</t>
+  </si>
+  <si>
+    <t>Contribution of Learning and Practice of Different Complementary Therapies in Pulmonary Transplant Patients</t>
+  </si>
+  <si>
+    <t>Assessment of Peripheral Endothelial Function in Idiopathic Pulmonary Fibrosis</t>
   </si>
   <si>
     <t>Analysis of Breath Volatile Organic Compounds After Dyspnea Induced in the Healthy Subject, by a Threshold Inspiratory Load and During a Maximal Breath Holding.</t>
   </si>
   <si>
-    <t>Immediate Efficacy Assessment of SCENAR's Session on a Common Spinal Pain Syndrome</t>
-  </si>
-  <si>
-    <t>Combined Use of Contact Aspiration and the Stent Retriever Technique Versus Stent Retriever Alone for Recanalisation in Acute Cerebral Infarction: the Randomized ASTER2 Study</t>
-  </si>
-  <si>
-    <t>Assessment of Peripheral Endothelial Function in Idiopathic Pulmonary Fibrosis</t>
-  </si>
-  <si>
-    <t>Contribution of Learning and Practice of Different Complementary Therapies in Pulmonary Transplant Patients</t>
+    <t>Language and Music, Speech and the Human Beatbox: Theoretical Issues for Research in General and Applied Linguistics; Monocentric Exploratory Study</t>
+  </si>
+  <si>
+    <t>Localised Cancer of Prostate and Androgen Deficiency.</t>
   </si>
   <si>
     <t>Interest of Auriculotherapy in Prophylaxis of Migraine and Headache in Patients With Migraines</t>
   </si>
   <si>
-    <t>Localised Cancer of Prostate and Androgen Deficiency.</t>
-  </si>
-  <si>
     <t>Analysis of Volatile Organic Compounds in Exhaled Air and in Sweat in Patients Referred to the Emergency Reception Service for Suspected COVID-19 Infection: Diagnostic Value and for Rapid Screening</t>
   </si>
   <si>
     <t>Is Routine Postoperative Oxygen Therapy Still Necessary in 2020?</t>
   </si>
   <si>
+    <t>COVID-19 and Pregnancy: Placental and Immunological Impacts</t>
+  </si>
+  <si>
+    <t>Longitudinal and Comparative Study of Morphological Abnormalities of the Olfactory Bulb on MRI and Olfactometry in Anosmic Versus Normosmic COVID-19 Patients</t>
+  </si>
+  <si>
+    <t>Analysis of Volatile Organic Compounds by Electronic Noses in Hospitalised Patients for an Infection by (SARS-CoV-2): Predictive Interest in Short-term Evolution</t>
+  </si>
+  <si>
     <t>Auriculotherapy and Acupuncture's Treatment for Chemotherapy-induced Nausea and Vomiting (CINV)</t>
   </si>
   <si>
-    <t>COVID-19 and Pregnancy: Placental and Immunological Impacts</t>
-  </si>
-  <si>
-    <t>Analysis of Volatile Organic Compounds by Electronic Noses in Hospitalised Patients for an Infection by (SARS-CoV-2): Predictive Interest in Short-term Evolution</t>
-  </si>
-  <si>
-    <t>Language and Music, Speech and the Human Beatbox: Theoretical Issues for Research in General and Applied Linguistics; Monocentric Exploratory Study</t>
-  </si>
-  <si>
-    <t>Longitudinal and Comparative Study of Morphological Abnormalities of the Olfactory Bulb on MRI and Olfactometry in Anosmic Versus Normosmic COVID-19 Patients</t>
-  </si>
-  <si>
     <t>Predictive Value of a Postural Test on Pulse Pressure Variation During Labor With Epidural Analgesia on Fetal Heart Rate Abnormalities</t>
   </si>
   <si>
+    <t>Performance Diagnosis of a Patent Foramen Ovale During Lung Transplantation Using Transesophageal Echocardiography: Comparison of the Injection of Contrast in the Upper and Lower Caval Territories (FOP-TP)</t>
+  </si>
+  <si>
     <t>Comparison of the 6-minute Walking Test in a Corridor and on a Non-motorized Treadmill, Feasibility Study</t>
   </si>
   <si>
+    <t>Detection of Postoperative Complications and Particularly Hemodynamic Ones Through Continuous Monitoring Using the Biobeat Patch</t>
+  </si>
+  <si>
+    <t>Impact of Subcutaneous Electric Lumbar Stimulation on Treatment of Refractory Chronic and Disabling Lumbago</t>
+  </si>
+  <si>
     <t>Assessment of the Risk of Pulmonary Embolism and Coagulation Profile in Patients With SARS Coronavirus (COV-2) Lung Disease</t>
   </si>
   <si>
-    <t>Detection of Postoperative Complications and Particularly Hemodynamic Ones Through Continuous Monitoring Using the Biobeat Patch</t>
-  </si>
-  <si>
     <t>HLA-G Immuno-Inhibitor Checkpoint Study in Patients With COVID-19 Infection: Molecular and Cellular Assessment</t>
   </si>
   <si>
-    <t>Performance Diagnosis of a Patent Foramen Ovale During Lung Transplantation Using Transesophageal Echocardiography: Comparison of the Injection of Contrast in the Upper and Lower Caval Territories (FOP-TP)</t>
-  </si>
-  <si>
-    <t>Impact of Subcutaneous Electric Lumbar Stimulation on Treatment of Refractory Chronic and Disabling Lumbago</t>
-  </si>
-  <si>
     <t>Interest of an Auriculotherapy Session in Smoking Cessation Controlled, Randomized, Single-blind Study: Proof of Concept Study</t>
   </si>
   <si>
     <t>Safety and Efficacy of Low-intensity Shockwave Therapy for Peyronie's Disease</t>
   </si>
   <si>
+    <t>Drone-N2O</t>
+  </si>
+  <si>
     <t>Drone-Proto</t>
   </si>
   <si>
-    <t>Drone-N2O</t>
+    <t>Drone-APDT</t>
+  </si>
+  <si>
+    <t>Propofols</t>
+  </si>
+  <si>
+    <t>Sugarecovery</t>
+  </si>
+  <si>
+    <t>Exacylcardio</t>
   </si>
   <si>
     <t>Hydro-Echo</t>
   </si>
   <si>
-    <t>Drone-APDT</t>
-  </si>
-  <si>
-    <t>Propofols</t>
-  </si>
-  <si>
-    <t>Sugarecovery</t>
-  </si>
-  <si>
-    <t>Exacylcardio</t>
-  </si>
-  <si>
     <t>THConcentr</t>
   </si>
   <si>
@@ -703,214 +703,214 @@
     <t>LoopHypnosis</t>
   </si>
   <si>
+    <t>KLOTHO</t>
+  </si>
+  <si>
+    <t>AFINIVEST</t>
+  </si>
+  <si>
+    <t>PropofolRemi</t>
+  </si>
+  <si>
+    <t>RHUM-TP</t>
+  </si>
+  <si>
+    <t>RAVVIH</t>
+  </si>
+  <si>
+    <t>ImmRubVac</t>
+  </si>
+  <si>
+    <t>Hb-O2</t>
+  </si>
+  <si>
+    <t>Nexfin2</t>
+  </si>
+  <si>
+    <t>Métaux/Poumons</t>
+  </si>
+  <si>
     <t>ANI-ALGO</t>
   </si>
   <si>
-    <t>Métaux/Poumons</t>
-  </si>
-  <si>
-    <t>RHUM-TP</t>
-  </si>
-  <si>
-    <t>Hb-O2</t>
-  </si>
-  <si>
-    <t>AFINIVEST</t>
-  </si>
-  <si>
-    <t>RAVVIH</t>
-  </si>
-  <si>
-    <t>KLOTHO</t>
-  </si>
-  <si>
-    <t>ImmRubVac</t>
-  </si>
-  <si>
-    <t>PropofolRemi</t>
-  </si>
-  <si>
-    <t>Nexfin2</t>
+    <t>Vent-Hyp</t>
+  </si>
+  <si>
+    <t>OSCILLOMOELL</t>
+  </si>
+  <si>
+    <t>Epidrum-Tho</t>
+  </si>
+  <si>
+    <t>MGM-PicRemi</t>
+  </si>
+  <si>
+    <t>ELA</t>
+  </si>
+  <si>
+    <t>Endothasthm</t>
+  </si>
+  <si>
+    <t>OSCILLOPOUMON</t>
+  </si>
+  <si>
+    <t>Drone-Curare</t>
   </si>
   <si>
     <t>LoopLido</t>
   </si>
   <si>
-    <t>Vent-Hyp</t>
-  </si>
-  <si>
-    <t>Endothasthm</t>
-  </si>
-  <si>
-    <t>Epidrum-Tho</t>
-  </si>
-  <si>
-    <t>ELA</t>
-  </si>
-  <si>
-    <t>MGM-PicRemi</t>
+    <t>Loop-NVPO</t>
   </si>
   <si>
     <t>TENS</t>
   </si>
   <si>
+    <t>Hypnose2</t>
+  </si>
+  <si>
     <t>Sugammadex2</t>
   </si>
   <si>
-    <t>Drone-Curare</t>
-  </si>
-  <si>
-    <t>OSCILLOMOELL</t>
-  </si>
-  <si>
-    <t>Hypnose2</t>
-  </si>
-  <si>
-    <t>Loop-NVPO</t>
-  </si>
-  <si>
-    <t>OSCILLOPOUMON</t>
+    <t>ExVivo</t>
+  </si>
+  <si>
+    <t>NEXFIN-CESAR</t>
+  </si>
+  <si>
+    <t>ANIONCO</t>
+  </si>
+  <si>
+    <t>NaitreEnchan</t>
+  </si>
+  <si>
+    <t>EPIC</t>
   </si>
   <si>
     <t>EPISIO</t>
   </si>
   <si>
-    <t>ExVivo</t>
-  </si>
-  <si>
-    <t>NaitreEnchan</t>
-  </si>
-  <si>
-    <t>ANIONCO</t>
-  </si>
-  <si>
-    <t>EPIC</t>
-  </si>
-  <si>
-    <t>NEXFIN-CESAR</t>
+    <t>STERPROSER</t>
   </si>
   <si>
     <t>RUPO</t>
   </si>
   <si>
-    <t>STERPROSER</t>
-  </si>
-  <si>
     <t>Scan-Bronchi</t>
   </si>
   <si>
+    <t>DRIVER</t>
+  </si>
+  <si>
+    <t>ICUPAIN</t>
+  </si>
+  <si>
+    <t>PosoAnes</t>
+  </si>
+  <si>
+    <t>MUCODOULEUR</t>
+  </si>
+  <si>
+    <t>endothBPCO</t>
+  </si>
+  <si>
     <t>PrehabPilote</t>
   </si>
   <si>
-    <t>endothBPCO</t>
-  </si>
-  <si>
-    <t>MUCODOULEUR</t>
-  </si>
-  <si>
-    <t>ICUPAIN</t>
-  </si>
-  <si>
-    <t>DRIVER</t>
-  </si>
-  <si>
-    <t>PosoAnes</t>
+    <t>Bis-qCON-IV</t>
+  </si>
+  <si>
+    <t>FT-KBP</t>
+  </si>
+  <si>
+    <t>VMAL</t>
   </si>
   <si>
     <t>Bis-qCon-Hal</t>
   </si>
   <si>
+    <t>EGTO</t>
+  </si>
+  <si>
     <t>SelfHypTp</t>
   </si>
   <si>
-    <t>FT-KBP</t>
-  </si>
-  <si>
-    <t>VMAL</t>
-  </si>
-  <si>
-    <t>Bis-qCON-IV</t>
-  </si>
-  <si>
-    <t>EGTO</t>
+    <t>ECHODIABETE</t>
+  </si>
+  <si>
+    <t>RICHTER</t>
+  </si>
+  <si>
+    <t>MGM3</t>
+  </si>
+  <si>
+    <t>POP-UP</t>
   </si>
   <si>
     <t>DOLORPOUMON</t>
   </si>
   <si>
-    <t>RICHTER</t>
-  </si>
-  <si>
-    <t>MGM3</t>
-  </si>
-  <si>
-    <t>ECHODIABETE</t>
-  </si>
-  <si>
-    <t>POP-UP</t>
+    <t>ASTER2</t>
+  </si>
+  <si>
+    <t>SCENAR1</t>
+  </si>
+  <si>
+    <t>TOOLBOX</t>
+  </si>
+  <si>
+    <t>Endoth-FPI</t>
   </si>
   <si>
     <t>Volatopnee</t>
   </si>
   <si>
-    <t>SCENAR1</t>
-  </si>
-  <si>
-    <t>ASTER2</t>
-  </si>
-  <si>
-    <t>Endoth-FPI</t>
-  </si>
-  <si>
-    <t>TOOLBOX</t>
+    <t>HBB</t>
+  </si>
+  <si>
+    <t>AndroCan</t>
   </si>
   <si>
     <t>Migauric</t>
   </si>
   <si>
-    <t>AndroCan</t>
-  </si>
-  <si>
     <t>VOC-COVID-Diag</t>
   </si>
   <si>
     <t>FreeO2</t>
   </si>
   <si>
+    <t>MaterCov</t>
+  </si>
+  <si>
+    <t>VOC-COVID</t>
+  </si>
+  <si>
     <t>NVCI</t>
   </si>
   <si>
-    <t>MaterCov</t>
-  </si>
-  <si>
-    <t>VOC-COVID</t>
-  </si>
-  <si>
-    <t>HBB</t>
-  </si>
-  <si>
     <t>PP-PERI</t>
   </si>
   <si>
+    <t>FOP-TP</t>
+  </si>
+  <si>
     <t>TDM6</t>
   </si>
   <si>
+    <t>Biobeat-Postop</t>
+  </si>
+  <si>
+    <t>IMESCUT</t>
+  </si>
+  <si>
     <t>COVIDEP</t>
   </si>
   <si>
-    <t>Biobeat-Postop</t>
-  </si>
-  <si>
     <t>Fib-Auric</t>
   </si>
   <si>
     <t>HLA-G-COVID</t>
-  </si>
-  <si>
-    <t>FOP-TP</t>
-  </si>
-  <si>
-    <t>IMESCUT</t>
   </si>
   <si>
     <t>StopAuric</t>
@@ -1423,8 +1423,8 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>109</v>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>113</v>
@@ -1434,6 +1434,9 @@
       </c>
       <c r="H6" t="s">
         <v>219</v>
+      </c>
+      <c r="I6" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1443,8 +1446,8 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
+      <c r="D7" t="s">
+        <v>109</v>
       </c>
       <c r="F7" t="s">
         <v>113</v>
@@ -1455,9 +1458,6 @@
       <c r="H7" t="s">
         <v>220</v>
       </c>
-      <c r="I7" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
@@ -1475,16 +1475,19 @@
       <c r="G8" t="s">
         <v>134</v>
       </c>
+      <c r="H8" t="s">
+        <v>221</v>
+      </c>
       <c r="I8" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -1495,11 +1498,8 @@
       <c r="G9" t="s">
         <v>135</v>
       </c>
-      <c r="H9" t="s">
-        <v>221</v>
-      </c>
       <c r="I9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1527,10 +1527,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -1542,15 +1542,15 @@
         <v>137</v>
       </c>
       <c r="I11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1583,6 +1583,9 @@
       </c>
       <c r="G13" t="s">
         <v>139</v>
+      </c>
+      <c r="H13" t="s">
+        <v>224</v>
       </c>
       <c r="I13" t="s">
         <v>302</v>
@@ -1604,19 +1607,16 @@
       <c r="G14" t="s">
         <v>140</v>
       </c>
-      <c r="H14" t="s">
-        <v>224</v>
-      </c>
       <c r="I14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1631,7 +1631,7 @@
         <v>225</v>
       </c>
       <c r="I15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1659,10 +1659,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -1673,19 +1673,16 @@
       <c r="G17" t="s">
         <v>143</v>
       </c>
-      <c r="H17" t="s">
-        <v>227</v>
-      </c>
       <c r="I17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -1697,7 +1694,7 @@
         <v>144</v>
       </c>
       <c r="I18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1717,18 +1714,18 @@
         <v>145</v>
       </c>
       <c r="H19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
@@ -1739,8 +1736,11 @@
       <c r="G20" t="s">
         <v>146</v>
       </c>
+      <c r="H20" t="s">
+        <v>228</v>
+      </c>
       <c r="I20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1763,7 +1763,7 @@
         <v>229</v>
       </c>
       <c r="I21" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1786,7 +1786,7 @@
         <v>230</v>
       </c>
       <c r="I22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1809,15 +1809,15 @@
         <v>231</v>
       </c>
       <c r="I23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -1832,7 +1832,7 @@
         <v>232</v>
       </c>
       <c r="I24" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1842,8 +1842,8 @@
       <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" t="s">
-        <v>110</v>
+      <c r="C25" t="s">
+        <v>39</v>
       </c>
       <c r="F25" t="s">
         <v>117</v>
@@ -1851,8 +1851,8 @@
       <c r="G25" t="s">
         <v>151</v>
       </c>
-      <c r="H25" t="s">
-        <v>233</v>
+      <c r="I25" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1863,7 +1863,7 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
         <v>117</v>
@@ -1872,7 +1872,7 @@
         <v>152</v>
       </c>
       <c r="H26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I26" t="s">
         <v>304</v>
@@ -1886,7 +1886,7 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
         <v>117</v>
@@ -1895,7 +1895,7 @@
         <v>153</v>
       </c>
       <c r="H27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I27" t="s">
         <v>305</v>
@@ -1903,13 +1903,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
         <v>117</v>
@@ -1918,10 +1918,10 @@
         <v>154</v>
       </c>
       <c r="H28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I28" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1931,8 +1931,8 @@
       <c r="B29" t="s">
         <v>13</v>
       </c>
-      <c r="C29" t="s">
-        <v>42</v>
+      <c r="D29" t="s">
+        <v>110</v>
       </c>
       <c r="F29" t="s">
         <v>117</v>
@@ -1940,8 +1940,8 @@
       <c r="G29" t="s">
         <v>155</v>
       </c>
-      <c r="I29" t="s">
-        <v>303</v>
+      <c r="H29" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1961,10 +1961,10 @@
         <v>156</v>
       </c>
       <c r="H30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1984,10 +1984,10 @@
         <v>157</v>
       </c>
       <c r="H31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I31" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2007,7 +2007,7 @@
         <v>158</v>
       </c>
       <c r="H32" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="I32" t="s">
         <v>302</v>
@@ -2015,10 +2015,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
@@ -2033,15 +2033,15 @@
         <v>239</v>
       </c>
       <c r="I33" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
@@ -2056,7 +2056,7 @@
         <v>240</v>
       </c>
       <c r="I34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2079,15 +2079,15 @@
         <v>241</v>
       </c>
       <c r="I35" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
@@ -2148,7 +2148,7 @@
         <v>244</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2164,9 +2164,6 @@
       <c r="F39" t="s">
         <v>118</v>
       </c>
-      <c r="G39" t="s">
-        <v>165</v>
-      </c>
       <c r="H39" t="s">
         <v>245</v>
       </c>
@@ -2188,7 +2185,7 @@
         <v>118</v>
       </c>
       <c r="G40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H40" t="s">
         <v>246</v>
@@ -2211,7 +2208,7 @@
         <v>118</v>
       </c>
       <c r="G41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H41" t="s">
         <v>247</v>
@@ -2222,10 +2219,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
@@ -2234,21 +2231,21 @@
         <v>118</v>
       </c>
       <c r="G42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H42" t="s">
         <v>248</v>
       </c>
       <c r="I42" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
@@ -2257,13 +2254,13 @@
         <v>118</v>
       </c>
       <c r="G43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H43" t="s">
         <v>249</v>
       </c>
       <c r="I43" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2280,13 +2277,13 @@
         <v>118</v>
       </c>
       <c r="G44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H44" t="s">
         <v>250</v>
       </c>
       <c r="I44" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2302,11 +2299,14 @@
       <c r="F45" t="s">
         <v>118</v>
       </c>
+      <c r="G45" t="s">
+        <v>170</v>
+      </c>
       <c r="H45" t="s">
         <v>251</v>
       </c>
       <c r="I45" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2329,15 +2329,15 @@
         <v>252</v>
       </c>
       <c r="I46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
@@ -2375,7 +2375,7 @@
         <v>254</v>
       </c>
       <c r="I48" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2398,7 +2398,7 @@
         <v>255</v>
       </c>
       <c r="I49" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2426,10 +2426,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
@@ -2444,15 +2444,15 @@
         <v>257</v>
       </c>
       <c r="I51" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
@@ -2460,22 +2460,19 @@
       <c r="F52" t="s">
         <v>119</v>
       </c>
-      <c r="G52" t="s">
-        <v>177</v>
-      </c>
       <c r="H52" t="s">
         <v>258</v>
       </c>
       <c r="I52" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
@@ -2483,11 +2480,14 @@
       <c r="F53" t="s">
         <v>119</v>
       </c>
+      <c r="G53" t="s">
+        <v>177</v>
+      </c>
       <c r="H53" t="s">
         <v>259</v>
       </c>
       <c r="I53" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2579,7 +2579,7 @@
         <v>263</v>
       </c>
       <c r="I57" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2602,7 +2602,7 @@
         <v>264</v>
       </c>
       <c r="I58" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2625,7 +2625,7 @@
         <v>265</v>
       </c>
       <c r="I59" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2648,7 +2648,7 @@
         <v>266</v>
       </c>
       <c r="I60" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2694,15 +2694,15 @@
         <v>268</v>
       </c>
       <c r="I62" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
@@ -2717,15 +2717,15 @@
         <v>269</v>
       </c>
       <c r="I63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
@@ -2740,15 +2740,15 @@
         <v>270</v>
       </c>
       <c r="I64" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
@@ -2763,15 +2763,15 @@
         <v>271</v>
       </c>
       <c r="I65" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
         <v>79</v>
@@ -2786,7 +2786,7 @@
         <v>272</v>
       </c>
       <c r="I66" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2878,7 +2878,7 @@
         <v>276</v>
       </c>
       <c r="I70" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2901,15 +2901,15 @@
         <v>277</v>
       </c>
       <c r="I71" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
@@ -2924,7 +2924,7 @@
         <v>278</v>
       </c>
       <c r="I72" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2952,10 +2952,10 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
         <v>87</v>
@@ -2970,7 +2970,7 @@
         <v>280</v>
       </c>
       <c r="I74" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3016,7 +3016,7 @@
         <v>282</v>
       </c>
       <c r="I76" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3039,7 +3039,7 @@
         <v>283</v>
       </c>
       <c r="I77" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3085,7 +3085,7 @@
         <v>285</v>
       </c>
       <c r="I79" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3108,7 +3108,7 @@
         <v>286</v>
       </c>
       <c r="I80" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3131,7 +3131,7 @@
         <v>287</v>
       </c>
       <c r="I81" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3173,11 +3173,8 @@
       <c r="G83" t="s">
         <v>207</v>
       </c>
-      <c r="H83" t="s">
-        <v>289</v>
-      </c>
       <c r="I83" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3197,10 +3194,10 @@
         <v>208</v>
       </c>
       <c r="H84" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I84" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3219,8 +3216,11 @@
       <c r="G85" t="s">
         <v>209</v>
       </c>
+      <c r="H85" t="s">
+        <v>290</v>
+      </c>
       <c r="I85" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3289,7 +3289,7 @@
         <v>293</v>
       </c>
       <c r="I88" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3328,11 +3328,14 @@
       <c r="F90" t="s">
         <v>125</v>
       </c>
+      <c r="G90" t="s">
+        <v>214</v>
+      </c>
       <c r="H90" t="s">
         <v>295</v>
       </c>
       <c r="I90" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3349,13 +3352,13 @@
         <v>125</v>
       </c>
       <c r="G91" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H91" t="s">
         <v>296</v>
       </c>
       <c r="I91" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3371,14 +3374,11 @@
       <c r="F92" t="s">
         <v>125</v>
       </c>
-      <c r="G92" t="s">
-        <v>215</v>
-      </c>
       <c r="H92" t="s">
         <v>297</v>
       </c>
       <c r="I92" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3401,7 +3401,7 @@
         <v>298</v>
       </c>
       <c r="I93" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:9">

--- a/publipostage2/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
+++ b/publipostage2/058td2q88/liste_essais_cliniques_identifies_058td2q88.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="330">
   <si>
     <t>statut</t>
   </si>
@@ -55,24 +55,24 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>NCT00391885</t>
   </si>
   <si>
     <t>NCT00393003</t>
   </si>
   <si>
-    <t>NCT00391885</t>
-  </si>
-  <si>
     <t>NCT00392158</t>
   </si>
   <si>
@@ -85,157 +85,163 @@
     <t>NCT00627081</t>
   </si>
   <si>
+    <t>NCT01041872</t>
+  </si>
+  <si>
+    <t>NCT01161004</t>
+  </si>
+  <si>
+    <t>NCT00809393</t>
+  </si>
+  <si>
+    <t>NCT01058525</t>
+  </si>
+  <si>
     <t>NCT00921284</t>
   </si>
   <si>
-    <t>NCT01041872</t>
-  </si>
-  <si>
     <t>NCT00772616</t>
   </si>
   <si>
-    <t>NCT01161004</t>
-  </si>
-  <si>
-    <t>NCT00809393</t>
-  </si>
-  <si>
     <t>NCT01321580</t>
   </si>
   <si>
-    <t>NCT01058525</t>
-  </si>
-  <si>
     <t>NCT03357900</t>
   </si>
   <si>
+    <t>NCT01648725</t>
+  </si>
+  <si>
+    <t>NCT00969683</t>
+  </si>
+  <si>
+    <t>NCT01782846</t>
+  </si>
+  <si>
     <t>NCT01750970</t>
   </si>
   <si>
-    <t>NCT00969683</t>
-  </si>
-  <si>
-    <t>NCT01782846</t>
-  </si>
-  <si>
-    <t>NCT01648725</t>
+    <t>NCT02077101</t>
+  </si>
+  <si>
+    <t>NCT02934295</t>
+  </si>
+  <si>
+    <t>NCT02040948</t>
+  </si>
+  <si>
+    <t>NCT01592162</t>
+  </si>
+  <si>
+    <t>NCT01654913</t>
+  </si>
+  <si>
+    <t>NCT01801137</t>
+  </si>
+  <si>
+    <t>NCT02986880</t>
+  </si>
+  <si>
+    <t>NCT01949181</t>
+  </si>
+  <si>
+    <t>NCT02663284</t>
+  </si>
+  <si>
+    <t>NCT01791166</t>
   </si>
   <si>
     <t>NCT02951442</t>
   </si>
   <si>
-    <t>NCT01801137</t>
-  </si>
-  <si>
-    <t>NCT01592162</t>
-  </si>
-  <si>
-    <t>NCT01791166</t>
-  </si>
-  <si>
-    <t>NCT02986880</t>
-  </si>
-  <si>
-    <t>NCT02077101</t>
-  </si>
-  <si>
-    <t>NCT02934295</t>
-  </si>
-  <si>
-    <t>NCT01654913</t>
-  </si>
-  <si>
-    <t>NCT02040948</t>
-  </si>
-  <si>
-    <t>NCT01949181</t>
-  </si>
-  <si>
-    <t>NCT02663284</t>
+    <t>NCT01579851</t>
+  </si>
+  <si>
+    <t>NCT01597466</t>
+  </si>
+  <si>
+    <t>NCT02245789</t>
+  </si>
+  <si>
+    <t>NCT02593344</t>
+  </si>
+  <si>
+    <t>NCT01154738</t>
   </si>
   <si>
     <t>NCT01891838</t>
   </si>
   <si>
+    <t>NCT02249364</t>
+  </si>
+  <si>
+    <t>NCT01807975</t>
+  </si>
+  <si>
     <t>NCT02902471</t>
   </si>
   <si>
-    <t>NCT01597466</t>
-  </si>
-  <si>
-    <t>NCT02245789</t>
+    <t>NCT00886418</t>
+  </si>
+  <si>
+    <t>NCT02564185</t>
+  </si>
+  <si>
+    <t>NCT01876290</t>
   </si>
   <si>
     <t>NCT01198639</t>
   </si>
   <si>
-    <t>NCT02593344</t>
-  </si>
-  <si>
-    <t>NCT01807975</t>
-  </si>
-  <si>
-    <t>NCT00886418</t>
-  </si>
-  <si>
-    <t>NCT01154738</t>
-  </si>
-  <si>
-    <t>NCT01876290</t>
-  </si>
-  <si>
-    <t>NCT02564185</t>
-  </si>
-  <si>
-    <t>NCT02249364</t>
-  </si>
-  <si>
-    <t>NCT01579851</t>
+    <t>NCT02899494</t>
+  </si>
+  <si>
+    <t>NCT02905695</t>
+  </si>
+  <si>
+    <t>NCT02902627</t>
+  </si>
+  <si>
+    <t>NCT01732133</t>
+  </si>
+  <si>
+    <t>NCT02834273</t>
   </si>
   <si>
     <t>NCT02906436</t>
   </si>
   <si>
-    <t>NCT01732133</t>
-  </si>
-  <si>
-    <t>NCT02902627</t>
-  </si>
-  <si>
-    <t>NCT02899494</t>
-  </si>
-  <si>
-    <t>NCT02834273</t>
-  </si>
-  <si>
-    <t>NCT02905695</t>
+    <t>NCT02290054</t>
   </si>
   <si>
     <t>NCT02778243</t>
   </si>
   <si>
-    <t>NCT02290054</t>
-  </si>
-  <si>
     <t>NCT02793245</t>
   </si>
   <si>
+    <t>NCT02878551</t>
+  </si>
+  <si>
+    <t>NCT02897882</t>
+  </si>
+  <si>
+    <t>NCT02934308</t>
+  </si>
+  <si>
+    <t>NCT00896714</t>
+  </si>
+  <si>
+    <t>NCT02593357</t>
+  </si>
+  <si>
     <t>NCT02413632</t>
   </si>
   <si>
-    <t>NCT02934308</t>
-  </si>
-  <si>
-    <t>NCT00896714</t>
-  </si>
-  <si>
-    <t>NCT02897882</t>
-  </si>
-  <si>
-    <t>NCT02593357</t>
-  </si>
-  <si>
-    <t>NCT02878551</t>
+    <t>NCT02438657</t>
+  </si>
+  <si>
+    <t>NCT02237976</t>
   </si>
   <si>
     <t>NCT03753217</t>
@@ -244,18 +250,12 @@
     <t>NCT02853188</t>
   </si>
   <si>
-    <t>NCT02438657</t>
+    <t>NCT02362815</t>
   </si>
   <si>
     <t>NCT03359512</t>
   </si>
   <si>
-    <t>NCT02362815</t>
-  </si>
-  <si>
-    <t>NCT02237976</t>
-  </si>
-  <si>
     <t>NCT03036774</t>
   </si>
   <si>
@@ -271,70 +271,73 @@
     <t>NCT02928003</t>
   </si>
   <si>
+    <t>NCT03755817</t>
+  </si>
+  <si>
+    <t>NCT02594059</t>
+  </si>
+  <si>
+    <t>NCT04418973</t>
+  </si>
+  <si>
     <t>NCT03290885</t>
   </si>
   <si>
-    <t>NCT03755817</t>
-  </si>
-  <si>
     <t>NCT03167528</t>
   </si>
   <si>
-    <t>NCT02594059</t>
-  </si>
-  <si>
-    <t>NCT04418973</t>
+    <t>NCT04526054</t>
+  </si>
+  <si>
+    <t>NCT04614883</t>
+  </si>
+  <si>
+    <t>NCT04726111</t>
+  </si>
+  <si>
+    <t>NCT03036761</t>
+  </si>
+  <si>
+    <t>NCT05009628</t>
   </si>
   <si>
     <t>NCT04526041</t>
   </si>
   <si>
+    <t>NCT03126136</t>
+  </si>
+  <si>
+    <t>NCT02767791</t>
+  </si>
+  <si>
+    <t>NCT04379154</t>
+  </si>
+  <si>
     <t>NCT02235142</t>
   </si>
   <si>
-    <t>NCT03036761</t>
-  </si>
-  <si>
-    <t>NCT04614883</t>
-  </si>
-  <si>
-    <t>NCT05009628</t>
-  </si>
-  <si>
-    <t>NCT04726111</t>
-  </si>
-  <si>
-    <t>NCT04526054</t>
-  </si>
-  <si>
-    <t>NCT04379154</t>
-  </si>
-  <si>
-    <t>NCT02767791</t>
-  </si>
-  <si>
-    <t>NCT03126136</t>
+    <t>NCT02988830</t>
+  </si>
+  <si>
+    <t>NCT04613297</t>
+  </si>
+  <si>
+    <t>NCT04585178</t>
   </si>
   <si>
     <t>NCT04165161</t>
   </si>
   <si>
+    <t>NCT02764788</t>
+  </si>
+  <si>
     <t>NCT04541511</t>
   </si>
   <si>
-    <t>NCT04585178</t>
-  </si>
-  <si>
-    <t>NCT02988830</t>
-  </si>
-  <si>
     <t>NCT04479540</t>
   </si>
   <si>
-    <t>NCT02764788</t>
-  </si>
-  <si>
-    <t>NCT04613297</t>
+    <t>NCT05610670</t>
   </si>
   <si>
     <t>NCT04880330</t>
@@ -343,12 +346,39 @@
     <t>NCT04821115</t>
   </si>
   <si>
+    <t>NCT06461052</t>
+  </si>
+  <si>
+    <t>NCT05523713</t>
+  </si>
+  <si>
+    <t>NCT06476002</t>
+  </si>
+  <si>
     <t>2007-001677-28</t>
   </si>
   <si>
+    <t>2011-002644-27</t>
+  </si>
+  <si>
+    <t>2011-000889-35</t>
+  </si>
+  <si>
     <t>2010-020067-20</t>
   </si>
   <si>
+    <t>2010-023943-13</t>
+  </si>
+  <si>
+    <t>2010-019979-29</t>
+  </si>
+  <si>
+    <t>2012-001486-32</t>
+  </si>
+  <si>
+    <t>2014-000571-50</t>
+  </si>
+  <si>
     <t>2007</t>
   </si>
   <si>
@@ -400,12 +430,15 @@
     <t>2024</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Target-controlled Infusion of Propofol and Remifentanil During General Anaesthesia Guided by Entropy of the Electroencephalogram: Comparison Between Manual Perfusion and Automated Perfusion</t>
+  </si>
+  <si>
     <t>Target-controlled Infusion of Propofol and Remifentanil for Postoperative Sedation Guided by the Bispectral Index: Comparison Between Manual Perfusion and Automated Perfusion</t>
   </si>
   <si>
-    <t>Target-controlled Infusion of Propofol and Remifentanil During General Anaesthesia Guided by Entropy of the Electroencephalogram: Comparison Between Manual Perfusion and Automated Perfusion</t>
-  </si>
-  <si>
     <t>Target-controlled Infusion of Propofol and Remifentanil During General Anaesthesia Guided by the Index Bispectral: Comparison Between Manual Perfusion and Automated Perfusion</t>
   </si>
   <si>
@@ -421,154 +454,160 @@
     <t>Intravenous Opioid-sparing Effect of Thoracic Epidural Administration of Chirocaine (5 mg/ml) During Thoracotomy</t>
   </si>
   <si>
+    <t>Dose-effect of Propofol for Anesthetic Induction: Double-blind Comparison of Different Propofol Formulations Administered Alone or With Lidocaine</t>
+  </si>
+  <si>
+    <t>Pilot Study of EEG Signs of Awakening Secondary to Injection of Sugammadex: Evaluation by Recording Bispectral Index and NeuroSENSE (Prospective, Double-blind Study)</t>
+  </si>
+  <si>
+    <t>Comparison of Two Tranexamic Acid Dose Regimens on Transfusion Needs During Cardiac Surgery With Cardiopulmonary Bypass</t>
+  </si>
+  <si>
+    <t>Influence of Ultrasonographic Hydro-dissection With Glucose 5% Solution on Median Nerve Block Efficiency: a Prospective and Randomized Study</t>
+  </si>
+  <si>
     <t>Closed-Loop Delivery of Propofol and Remifentanil: Sparing Effect of Dexmedetomidine</t>
   </si>
   <si>
-    <t>Dose-effect of Propofol for Anesthetic Induction: Double-blind Comparison of Different Propofol Formulations Administered Alone or With Lidocaine</t>
-  </si>
-  <si>
     <t>Influence of Intraoperative Analgesia (Sufentanil Administered According to the Usual Criteria or Remifentanil Administered by a Closed-loop System Using Bispectral Index as the Controller) on the Postoperative Morphine Consumption</t>
   </si>
   <si>
-    <t>Pilot Study of EEG Signs of Awakening Secondary to Injection of Sugammadex: Evaluation by Recording Bispectral Index and NeuroSENSE (Prospective, Double-blind Study)</t>
-  </si>
-  <si>
-    <t>Comparison of Two Tranexamic Acid Dose Regimens on Transfusion Needs During Cardiac Surgery With Cardiopulmonary Bypass</t>
-  </si>
-  <si>
     <t>Comparison of the Hemoglobin Results Obtained With the Masimo Pronto 7 and the Clinical Laboratory Measurement Study</t>
   </si>
   <si>
-    <t>Influence of Ultrasonographic Hydro-dissection With Glucose 5% Solution on Median Nerve Block Efficiency: a Prospective and Randomized Study</t>
-  </si>
-  <si>
     <t>Closed-loop Anaesthesia for Liver Transplantation: a Pilot Study</t>
   </si>
   <si>
+    <t>Influence of Hypnosis on the Propofol Requirement to Induce General Anesthesia</t>
+  </si>
+  <si>
+    <t>Comparison Between Left Double-lumen Tube With or Without a Carinal Hook During Lung Surgery</t>
+  </si>
+  <si>
+    <t>Double Blind-randomized Study Comparing the Efficacy of Two Analgesia (Ixprim® and Dafalgan-Codeine®) , in the Emergency Unit.</t>
+  </si>
+  <si>
     <t>Endoscopic Resection of High Grade(TA, T1, Cis)Non-muscle Invasive Bladder Tumors: Modification of Usual Management of This Resection by Using the Blue Light and Evaluation of the Outcome: Should we Maintain the Dogma of Second Endoscopic Resection as a Principle?</t>
   </si>
   <si>
-    <t>Comparison Between Left Double-lumen Tube With or Without a Carinal Hook During Lung Surgery</t>
-  </si>
-  <si>
-    <t>Double Blind-randomized Study Comparing the Efficacy of Two Analgesia (Ixprim® and Dafalgan-Codeine®) , in the Emergency Unit.</t>
-  </si>
-  <si>
-    <t>Influence of Hypnosis on the Propofol Requirement to Induce General Anesthesia</t>
+    <t>Representations and Acceptability of HIV Therapeutic Vaccine in a Cohort of HIV-1 Infected Outpatients Followed at Hospital : Multicentric Interventional Study Qualitative and Quantitative</t>
+  </si>
+  <si>
+    <t>Study of Rubella Immunity. Response to Vaccination of Subjects With Very Low, Equivocal or Undetectable Titers of Rubella Virus Antibodies</t>
+  </si>
+  <si>
+    <t>Accuracy of Pulse Pressure Variation (Nexfin) and of Pleth Variability Index (Radical 7) to Predict the Response to a Fluid Challenge: Comparison With the Reference Method (Measurement of Stroke Volume by Esophageal Doppler)</t>
+  </si>
+  <si>
+    <t>Dose-effect of Propofol for Anesthetic Induction: Double-blind Comparison of Different Propofol Formulations Administered Alone or With Remifentanil</t>
+  </si>
+  <si>
+    <t>Influence of the Inspired Oxygen Fraction on the Noninvasive Measurement of Hemoglobin Using Two Different Devices (Namely Pronto 7 and NBM-200)</t>
+  </si>
+  <si>
+    <t>A Multicentre Phase III Trial to Determine the Efficacy of RAD 001 (Everolimus, Afinitor) as Second Line Therapy in Patients With Transitional Cell Carcinoma TCC of the Urothelium Which Failed or Progressed After First Line Chemotherapy</t>
+  </si>
+  <si>
+    <t>A Dose-response, Randomized, Double-blind Study to Evaluate the Effect of Type-A Botulinum Toxin in the Post-radiosurgical Neck Contractures</t>
+  </si>
+  <si>
+    <t>Relationship Between Blood, Hair and Lung Metals/Metalloids Concentration (Cadmium, Iron, Copper, Nickel, Chrome, Arsenic, Vanadium, Beryllium, and Zinc) and Lung Cancer or Chronic Obstructive Pulmonary Disease.</t>
+  </si>
+  <si>
+    <t>Evaluation of Non-invasive Monitor of Physiodoloris Pain in Patients With Complex Regional Pain Syndrome Treated by Nerve Block (Prospective Monocenter Study)</t>
+  </si>
+  <si>
+    <t>Humoral Rejection - Diagnostic Markers in Pulmonary Transplant.</t>
+  </si>
+  <si>
+    <t>A multicentre phase II trial to determine the efficacy of RAD 001 (everolimus, Afinitor®) as second line therapy in patients with transitional cell carcinoma (TCC) of the urothelium which failed or progressed after first line chemotherapy.</t>
   </si>
   <si>
     <t>Identification of Markers (Klotho-FGF23 Axis) as Determinant in the Evolution of Arterial Stiffness During the First Year of Renal Transplant</t>
   </si>
   <si>
-    <t>A Multicentre Phase III Trial to Determine the Efficacy of RAD 001 (Everolimus, Afinitor) as Second Line Therapy in Patients With Transitional Cell Carcinoma TCC of the Urothelium Which Failed or Progressed After First Line Chemotherapy</t>
-  </si>
-  <si>
-    <t>Dose-effect of Propofol for Anesthetic Induction: Double-blind Comparison of Different Propofol Formulations Administered Alone or With Remifentanil</t>
-  </si>
-  <si>
-    <t>Humoral Rejection - Diagnostic Markers in Pulmonary Transplant.</t>
-  </si>
-  <si>
-    <t>A Dose-response, Randomized, Double-blind Study to Evaluate the Effect of Type-A Botulinum Toxin in the Post-radiosurgical Neck Contractures</t>
-  </si>
-  <si>
-    <t>Representations and Acceptability of HIV Therapeutic Vaccine in a Cohort of HIV-1 Infected Outpatients Followed at Hospital : Multicentric Interventional Study Qualitative and Quantitative</t>
-  </si>
-  <si>
-    <t>Study of Rubella Immunity. Response to Vaccination of Subjects With Very Low, Equivocal or Undetectable Titers of Rubella Virus Antibodies</t>
-  </si>
-  <si>
-    <t>Influence of the Inspired Oxygen Fraction on the Noninvasive Measurement of Hemoglobin Using Two Different Devices (Namely Pronto 7 and NBM-200)</t>
-  </si>
-  <si>
-    <t>A multicentre phase II trial to determine the efficacy of RAD 001 (everolimus, Afinitor®) as second line therapy in patients with transitional cell carcinoma (TCC) of the urothelium which failed or progressed after first line chemotherapy.</t>
-  </si>
-  <si>
-    <t>Accuracy of Pulse Pressure Variation (Nexfin) and of Pleth Variability Index (Radical 7) to Predict the Response to a Fluid Challenge: Comparison With the Reference Method (Measurement of Stroke Volume by Esophageal Doppler)</t>
-  </si>
-  <si>
-    <t>Relationship Between Blood, Hair and Lung Metals/Metalloids Concentration (Cadmium, Iron, Copper, Nickel, Chrome, Arsenic, Vanadium, Beryllium, and Zinc) and Lung Cancer or Chronic Obstructive Pulmonary Disease.</t>
-  </si>
-  <si>
-    <t>Evaluation of Non-invasive Monitor of Physiodoloris Pain in Patients With Complex Regional Pain Syndrome Treated by Nerve Block (Prospective Monocenter Study)</t>
+    <t>Recovery After Sugammadex(TIVA Using Propofol vs Inhalation Anesthesia Using Sevoflurane)</t>
+  </si>
+  <si>
+    <t>A Comparison Study of Two Different Techniques for Identifying the Epidural Space in Patients Requiring Thoracic Epidural Analgesia: a Prospective Multicentric Randomized Study</t>
+  </si>
+  <si>
+    <t>Does the Use of a Videolaryngoscope Modifies Anesthetic Induction ?</t>
+  </si>
+  <si>
+    <t>Peripheral Endothelial Function in Asthmatic Patients</t>
+  </si>
+  <si>
+    <t>Influence of Lidocaine on a Closed-Loop Anesthesia System</t>
   </si>
   <si>
     <t>Transsphenoidal Surgery for Pituitary Adenomas: Influence of the Ventilation Mode on Intraoperative Bleeding</t>
   </si>
   <si>
+    <t>Interest of Hypnosis Before the Induction of Anesthesia. Study in Women Submitted to One Day Gynecological Surgical Procedures</t>
+  </si>
+  <si>
     <t>Functional Evaluation of Distal Airways by Forced Oscillations: Diagnosis Help in Bronchiolitis Obliterans Syndrome in Post Bone Marrow Transplantation</t>
   </si>
   <si>
-    <t>A Comparison Study of Two Different Techniques for Identifying the Epidural Space in Patients Requiring Thoracic Epidural Analgesia: a Prospective Multicentric Randomized Study</t>
-  </si>
-  <si>
-    <t>Does the Use of a Videolaryngoscope Modifies Anesthetic Induction ?</t>
+    <t>Effect of Continuous Myorelaxation on the Need for Hypnotic Agent During Surgical Procedures Which do Not Require it (Multicenter, Randomized and Prospective Study)</t>
+  </si>
+  <si>
+    <t>Prospective, Randomized Study of the Impact of a Education Program for Patients Suffering From Low Back Pain</t>
+  </si>
+  <si>
+    <t>Should we Associate Dexamethasone and Ondansetron to Closed-loop Anesthesia to Reduce the Incidence of Postoperative Nausea and Vomiting After Bariatric Surgery?</t>
   </si>
   <si>
     <t>One-year Mortality According to the Method of Total Intravenous Anesthesia. A Prospective, Randomized and Multicenter Study</t>
   </si>
   <si>
-    <t>Peripheral Endothelial Function in Asthmatic Patients</t>
-  </si>
-  <si>
-    <t>Effect of Continuous Myorelaxation on the Need for Hypnotic Agent During Surgical Procedures Which do Not Require it (Multicenter, Randomized and Prospective Study)</t>
-  </si>
-  <si>
-    <t>Influence of Lidocaine on a Closed-Loop Anesthesia System</t>
-  </si>
-  <si>
-    <t>Should we Associate Dexamethasone and Ondansetron to Closed-loop Anesthesia to Reduce the Incidence of Postoperative Nausea and Vomiting After Bariatric Surgery?</t>
-  </si>
-  <si>
-    <t>Prospective, Randomized Study of the Impact of a Education Program for Patients Suffering From Low Back Pain</t>
-  </si>
-  <si>
-    <t>Interest of Hypnosis Before the Induction of Anesthesia. Study in Women Submitted to One Day Gynecological Surgical Procedures</t>
-  </si>
-  <si>
-    <t>Recovery After Sugammadex(TIVA Using Propofol vs Inhalation Anesthesia Using Sevoflurane)</t>
+    <t>Effect of the "Adjusted Vocal Expression" Method on the Satisfaction of Parturients About Their Childbirth (NaîtreEnchanté)</t>
+  </si>
+  <si>
+    <t>Contribution of the Local Infiltration of Chirocaine® in the Management of the Post-partum Perineal Pain After Episiotomy or First-degree Tear</t>
+  </si>
+  <si>
+    <t>Pain in Oncolgy: Evaluation of a Non Invasive Monitoring Device (ANI). A Monocentric Prospective Study</t>
+  </si>
+  <si>
+    <t>Evaluation of the System NEXFIN for Continuous and Non-invasive Measure of the Blood Pressure During Cesarean Delivery Practised Under Spinal Anesthesia</t>
+  </si>
+  <si>
+    <t>Impact of Patient Education Following a Stroke on Knowledge of Risk Factors, Stroke Warning Signs and What to do in Cases of Stroke</t>
   </si>
   <si>
     <t>Pilot Study of Lung Transplantation After Ex-Vivo Lung Reconditioning</t>
   </si>
   <si>
-    <t>Evaluation of the System NEXFIN for Continuous and Non-invasive Measure of the Blood Pressure During Cesarean Delivery Practised Under Spinal Anesthesia</t>
-  </si>
-  <si>
-    <t>Pain in Oncolgy: Evaluation of a Non Invasive Monitoring Device (ANI). A Monocentric Prospective Study</t>
-  </si>
-  <si>
-    <t>Effect of the "Adjusted Vocal Expression" Method on the Satisfaction of Parturients About Their Childbirth (NaîtreEnchanté)</t>
-  </si>
-  <si>
-    <t>Impact of Patient Education Following a Stroke on Knowledge of Risk Factors, Stroke Warning Signs and What to do in Cases of Stroke</t>
-  </si>
-  <si>
-    <t>Contribution of the Local Infiltration of Chirocaine® in the Management of the Post-partum Perineal Pain After Episiotomy or First-degree Tear</t>
-  </si>
-  <si>
     <t>Auriculotherapy for Prevention of Postoperative Urinary Retention in Men Receiving Postoperative Epidural Analgesia After Thoracic Surgery</t>
   </si>
   <si>
     <t>Influence of Patient Characteristics on the Tracheobronchial Anatomy Evaluated by a CT Examination</t>
   </si>
   <si>
+    <t>Evaluation of the Benefits of a Program of Prehabilitation: Pilot Study</t>
+  </si>
+  <si>
+    <t>Acute and Chronic Pain in Lung Transplantation: Prevalence, Associated Factors, Medical Care</t>
+  </si>
+  <si>
+    <t>Comparison of the Skin Conductance Values and Patient Pain Scores During Minor Procedures in the ICU</t>
+  </si>
+  <si>
+    <t>Impact of Environmental and Demographic Factors on Pre-operative Doses of Anesthetic Agents (Prospective Multicenter Study)</t>
+  </si>
+  <si>
+    <t>Assessment of a Peripheral Endothelial Dysfunction in COPD (Chronic Obstructive Pulmonary Disease)</t>
+  </si>
+  <si>
     <t>Asymptomatic Sexually Transmitted Infections (STI) : Comparison of Two Screening Strategies Routine Screening Versus Screening as Reported by the Risks Taken by the Patient, in a Cohort of HIV Outpatients Men Who Have Sex With Men</t>
   </si>
   <si>
-    <t>Comparison of the Skin Conductance Values and Patient Pain Scores During Minor Procedures in the ICU</t>
-  </si>
-  <si>
-    <t>Impact of Environmental and Demographic Factors on Pre-operative Doses of Anesthetic Agents (Prospective Multicenter Study)</t>
-  </si>
-  <si>
-    <t>Acute and Chronic Pain in Lung Transplantation: Prevalence, Associated Factors, Medical Care</t>
-  </si>
-  <si>
-    <t>Assessment of a Peripheral Endothelial Dysfunction in COPD (Chronic Obstructive Pulmonary Disease)</t>
-  </si>
-  <si>
-    <t>Evaluation of the Benefits of a Program of Prehabilitation: Pilot Study</t>
+    <t>Ultrasound-guided Median Nerve Block With Dextrose 5% Hydrodissection: Determination of the Minimal Effective Volume of Local Anesthetic</t>
+  </si>
+  <si>
+    <t>Interest of Learning Self-hypnosis in Patients Awaiting Lung Transplantation</t>
   </si>
   <si>
     <t>Assessment of the Depth of Anesthesia During Intravenous Anesthesia: Comparison of the Bispectral Index Monitor and the qCON Monitor.</t>
@@ -577,18 +616,12 @@
     <t>Does the Measure of the Plasma Tissue Factor Allow to Predict a Venous Thromboembolism Episode for Patients Presenting a Primitive Lung Cancer?</t>
   </si>
   <si>
-    <t>Ultrasound-guided Median Nerve Block With Dextrose 5% Hydrodissection: Determination of the Minimal Effective Volume of Local Anesthetic</t>
+    <t>Fluid Intake During Labour, Ultrasound Evaluation</t>
   </si>
   <si>
     <t>Comparison of Two Electroencephalograms (EEG) Monitors in Patients Undergoing General Anesthesia With Sevoflurane</t>
   </si>
   <si>
-    <t>Fluid Intake During Labour, Ultrasound Evaluation</t>
-  </si>
-  <si>
-    <t>Interest of Learning Self-hypnosis in Patients Awaiting Lung Transplantation</t>
-  </si>
-  <si>
     <t>Quantitative Ultrasound Assessment of Gastric Volume in Diabetic and Non Diabetic Patients Scheduled for a General Anesthesia</t>
   </si>
   <si>
@@ -604,49 +637,58 @@
     <t>Chronic Neuropathic Pain After Lung Surgery: Prevalence and Predictive Factors</t>
   </si>
   <si>
+    <t>Immediate Efficacy Assessment of SCENAR's Session on a Common Spinal Pain Syndrome</t>
+  </si>
+  <si>
+    <t>Assessment of Peripheral Endothelial Function in Idiopathic Pulmonary Fibrosis</t>
+  </si>
+  <si>
+    <t>Analysis of Breath Volatile Organic Compounds After Dyspnea Induced in the Healthy Subject, by a Threshold Inspiratory Load and During a Maximal Breath Holding.</t>
+  </si>
+  <si>
     <t>Combined Use of Contact Aspiration and the Stent Retriever Technique Versus Stent Retriever Alone for Recanalisation in Acute Cerebral Infarction: the Randomized ASTER2 Study</t>
   </si>
   <si>
-    <t>Immediate Efficacy Assessment of SCENAR's Session on a Common Spinal Pain Syndrome</t>
-  </si>
-  <si>
     <t>Contribution of Learning and Practice of Different Complementary Therapies in Pulmonary Transplant Patients</t>
   </si>
   <si>
-    <t>Assessment of Peripheral Endothelial Function in Idiopathic Pulmonary Fibrosis</t>
-  </si>
-  <si>
-    <t>Analysis of Breath Volatile Organic Compounds After Dyspnea Induced in the Healthy Subject, by a Threshold Inspiratory Load and During a Maximal Breath Holding.</t>
+    <t>Longitudinal and Comparative Study of Morphological Abnormalities of the Olfactory Bulb on MRI and Olfactometry in Anosmic Versus Normosmic COVID-19 Patients</t>
+  </si>
+  <si>
+    <t>Analysis of Volatile Organic Compounds in Exhaled Air and in Sweat in Patients Referred to the Emergency Reception Service for Suspected COVID-19 Infection: Diagnostic Value and for Rapid Screening</t>
+  </si>
+  <si>
+    <t>COVID-19 and Pregnancy: Placental and Immunological Impacts</t>
+  </si>
+  <si>
+    <t>Interest of Auriculotherapy in Prophylaxis of Migraine and Headache in Patients With Migraines</t>
+  </si>
+  <si>
+    <t>Is Routine Postoperative Oxygen Therapy Still Necessary in 2020?</t>
   </si>
   <si>
     <t>Language and Music, Speech and the Human Beatbox: Theoretical Issues for Research in General and Applied Linguistics; Monocentric Exploratory Study</t>
   </si>
   <si>
+    <t>Predictive Value of a Postural Test on Pulse Pressure Variation During Labor With Epidural Analgesia on Fetal Heart Rate Abnormalities</t>
+  </si>
+  <si>
+    <t>Auriculotherapy and Acupuncture's Treatment for Chemotherapy-induced Nausea and Vomiting (CINV)</t>
+  </si>
+  <si>
+    <t>Analysis of Volatile Organic Compounds by Electronic Noses in Hospitalised Patients for an Infection by (SARS-CoV-2): Predictive Interest in Short-term Evolution</t>
+  </si>
+  <si>
     <t>Localised Cancer of Prostate and Androgen Deficiency.</t>
   </si>
   <si>
-    <t>Interest of Auriculotherapy in Prophylaxis of Migraine and Headache in Patients With Migraines</t>
-  </si>
-  <si>
-    <t>Analysis of Volatile Organic Compounds in Exhaled Air and in Sweat in Patients Referred to the Emergency Reception Service for Suspected COVID-19 Infection: Diagnostic Value and for Rapid Screening</t>
-  </si>
-  <si>
-    <t>Is Routine Postoperative Oxygen Therapy Still Necessary in 2020?</t>
-  </si>
-  <si>
-    <t>COVID-19 and Pregnancy: Placental and Immunological Impacts</t>
-  </si>
-  <si>
-    <t>Longitudinal and Comparative Study of Morphological Abnormalities of the Olfactory Bulb on MRI and Olfactometry in Anosmic Versus Normosmic COVID-19 Patients</t>
-  </si>
-  <si>
-    <t>Analysis of Volatile Organic Compounds by Electronic Noses in Hospitalised Patients for an Infection by (SARS-CoV-2): Predictive Interest in Short-term Evolution</t>
-  </si>
-  <si>
-    <t>Auriculotherapy and Acupuncture's Treatment for Chemotherapy-induced Nausea and Vomiting (CINV)</t>
-  </si>
-  <si>
-    <t>Predictive Value of a Postural Test on Pulse Pressure Variation During Labor With Epidural Analgesia on Fetal Heart Rate Abnormalities</t>
+    <t>Impact of Subcutaneous Electric Lumbar Stimulation on Treatment of Refractory Chronic and Disabling Lumbago</t>
+  </si>
+  <si>
+    <t>HLA-G Immuno-Inhibitor Checkpoint Study in Patients With COVID-19 Infection: Molecular and Cellular Assessment</t>
+  </si>
+  <si>
+    <t>Detection of Postoperative Complications and Particularly Hemodynamic Ones Through Continuous Monitoring Using the Biobeat Patch</t>
   </si>
   <si>
     <t>Performance Diagnosis of a Patent Foramen Ovale During Lung Transplantation Using Transesophageal Echocardiography: Comparison of the Injection of Contrast in the Upper and Lower Caval Territories (FOP-TP)</t>
@@ -655,16 +697,10 @@
     <t>Comparison of the 6-minute Walking Test in a Corridor and on a Non-motorized Treadmill, Feasibility Study</t>
   </si>
   <si>
-    <t>Detection of Postoperative Complications and Particularly Hemodynamic Ones Through Continuous Monitoring Using the Biobeat Patch</t>
-  </si>
-  <si>
-    <t>Impact of Subcutaneous Electric Lumbar Stimulation on Treatment of Refractory Chronic and Disabling Lumbago</t>
-  </si>
-  <si>
     <t>Assessment of the Risk of Pulmonary Embolism and Coagulation Profile in Patients With SARS Coronavirus (COV-2) Lung Disease</t>
   </si>
   <si>
-    <t>HLA-G Immuno-Inhibitor Checkpoint Study in Patients With COVID-19 Infection: Molecular and Cellular Assessment</t>
+    <t>Access to Parenthood and Gynecological Follow-up After Organ Transplantation</t>
   </si>
   <si>
     <t>Interest of an Auriculotherapy Session in Smoking Cessation Controlled, Randomized, Single-blind Study: Proof of Concept Study</t>
@@ -673,6 +709,15 @@
     <t>Safety and Efficacy of Low-intensity Shockwave Therapy for Peyronie's Disease</t>
   </si>
   <si>
+    <t>Information and Music Therapy As a Means of Reducing Preoperative Anxiety in Outpatient Surgery. Outpatient Surgery: a Before-and-after Study</t>
+  </si>
+  <si>
+    <t>Development and Validation of a Predictive Score for Surgical Site Infections (SSI): a Prospective Preoperative Trial in Major Digestive Surgery</t>
+  </si>
+  <si>
+    <t>Analysis of the Understanding of the French Translation of the Vulvar Pain Assessment Questionnaire (VPAQscreen) and Its Supplemental Scales (VPAQdesc, VPAQcope and VPAQpartner).</t>
+  </si>
+  <si>
     <t>Drone-N2O</t>
   </si>
   <si>
@@ -697,124 +742,130 @@
     <t>THConcentr</t>
   </si>
   <si>
+    <t>LoopHypnosis</t>
+  </si>
+  <si>
     <t>Trama-Code</t>
   </si>
   <si>
-    <t>LoopHypnosis</t>
+    <t>RAVVIH</t>
+  </si>
+  <si>
+    <t>ImmRubVac</t>
+  </si>
+  <si>
+    <t>Nexfin2</t>
+  </si>
+  <si>
+    <t>PropofolRemi</t>
+  </si>
+  <si>
+    <t>Hb-O2</t>
+  </si>
+  <si>
+    <t>AFINIVEST</t>
+  </si>
+  <si>
+    <t>Métaux/Poumons</t>
+  </si>
+  <si>
+    <t>ANI-ALGO</t>
+  </si>
+  <si>
+    <t>RHUM-TP</t>
   </si>
   <si>
     <t>KLOTHO</t>
   </si>
   <si>
-    <t>AFINIVEST</t>
-  </si>
-  <si>
-    <t>PropofolRemi</t>
-  </si>
-  <si>
-    <t>RHUM-TP</t>
-  </si>
-  <si>
-    <t>RAVVIH</t>
-  </si>
-  <si>
-    <t>ImmRubVac</t>
-  </si>
-  <si>
-    <t>Hb-O2</t>
-  </si>
-  <si>
-    <t>Nexfin2</t>
-  </si>
-  <si>
-    <t>Métaux/Poumons</t>
-  </si>
-  <si>
-    <t>ANI-ALGO</t>
+    <t>Sugammadex2</t>
+  </si>
+  <si>
+    <t>Epidrum-Tho</t>
+  </si>
+  <si>
+    <t>MGM-PicRemi</t>
+  </si>
+  <si>
+    <t>Endothasthm</t>
+  </si>
+  <si>
+    <t>LoopLido</t>
   </si>
   <si>
     <t>Vent-Hyp</t>
   </si>
   <si>
+    <t>Hypnose2</t>
+  </si>
+  <si>
+    <t>OSCILLOPOUMON</t>
+  </si>
+  <si>
     <t>OSCILLOMOELL</t>
   </si>
   <si>
-    <t>Epidrum-Tho</t>
-  </si>
-  <si>
-    <t>MGM-PicRemi</t>
+    <t>Drone-Curare</t>
+  </si>
+  <si>
+    <t>TENS</t>
+  </si>
+  <si>
+    <t>Loop-NVPO</t>
   </si>
   <si>
     <t>ELA</t>
   </si>
   <si>
-    <t>Endothasthm</t>
-  </si>
-  <si>
-    <t>OSCILLOPOUMON</t>
-  </si>
-  <si>
-    <t>Drone-Curare</t>
-  </si>
-  <si>
-    <t>LoopLido</t>
-  </si>
-  <si>
-    <t>Loop-NVPO</t>
-  </si>
-  <si>
-    <t>TENS</t>
-  </si>
-  <si>
-    <t>Hypnose2</t>
-  </si>
-  <si>
-    <t>Sugammadex2</t>
+    <t>NaitreEnchan</t>
+  </si>
+  <si>
+    <t>EPISIO</t>
+  </si>
+  <si>
+    <t>ANIONCO</t>
+  </si>
+  <si>
+    <t>NEXFIN-CESAR</t>
+  </si>
+  <si>
+    <t>EPIC</t>
   </si>
   <si>
     <t>ExVivo</t>
   </si>
   <si>
-    <t>NEXFIN-CESAR</t>
-  </si>
-  <si>
-    <t>ANIONCO</t>
-  </si>
-  <si>
-    <t>NaitreEnchan</t>
-  </si>
-  <si>
-    <t>EPIC</t>
-  </si>
-  <si>
-    <t>EPISIO</t>
+    <t>RUPO</t>
   </si>
   <si>
     <t>STERPROSER</t>
   </si>
   <si>
-    <t>RUPO</t>
-  </si>
-  <si>
     <t>Scan-Bronchi</t>
   </si>
   <si>
+    <t>PrehabPilote</t>
+  </si>
+  <si>
+    <t>MUCODOULEUR</t>
+  </si>
+  <si>
+    <t>ICUPAIN</t>
+  </si>
+  <si>
+    <t>PosoAnes</t>
+  </si>
+  <si>
+    <t>endothBPCO</t>
+  </si>
+  <si>
     <t>DRIVER</t>
   </si>
   <si>
-    <t>ICUPAIN</t>
-  </si>
-  <si>
-    <t>PosoAnes</t>
-  </si>
-  <si>
-    <t>MUCODOULEUR</t>
-  </si>
-  <si>
-    <t>endothBPCO</t>
-  </si>
-  <si>
-    <t>PrehabPilote</t>
+    <t>VMAL</t>
+  </si>
+  <si>
+    <t>SelfHypTp</t>
   </si>
   <si>
     <t>Bis-qCON-IV</t>
@@ -823,18 +874,12 @@
     <t>FT-KBP</t>
   </si>
   <si>
-    <t>VMAL</t>
+    <t>EGTO</t>
   </si>
   <si>
     <t>Bis-qCon-Hal</t>
   </si>
   <si>
-    <t>EGTO</t>
-  </si>
-  <si>
-    <t>SelfHypTp</t>
-  </si>
-  <si>
     <t>ECHODIABETE</t>
   </si>
   <si>
@@ -850,67 +895,70 @@
     <t>DOLORPOUMON</t>
   </si>
   <si>
+    <t>SCENAR1</t>
+  </si>
+  <si>
+    <t>Endoth-FPI</t>
+  </si>
+  <si>
+    <t>Volatopnee</t>
+  </si>
+  <si>
     <t>ASTER2</t>
   </si>
   <si>
-    <t>SCENAR1</t>
-  </si>
-  <si>
     <t>TOOLBOX</t>
   </si>
   <si>
-    <t>Endoth-FPI</t>
-  </si>
-  <si>
-    <t>Volatopnee</t>
+    <t>VOC-COVID-Diag</t>
+  </si>
+  <si>
+    <t>MaterCov</t>
+  </si>
+  <si>
+    <t>Migauric</t>
+  </si>
+  <si>
+    <t>FreeO2</t>
   </si>
   <si>
     <t>HBB</t>
   </si>
   <si>
+    <t>PP-PERI</t>
+  </si>
+  <si>
+    <t>NVCI</t>
+  </si>
+  <si>
+    <t>VOC-COVID</t>
+  </si>
+  <si>
     <t>AndroCan</t>
   </si>
   <si>
-    <t>Migauric</t>
-  </si>
-  <si>
-    <t>VOC-COVID-Diag</t>
-  </si>
-  <si>
-    <t>FreeO2</t>
-  </si>
-  <si>
-    <t>MaterCov</t>
-  </si>
-  <si>
-    <t>VOC-COVID</t>
-  </si>
-  <si>
-    <t>NVCI</t>
-  </si>
-  <si>
-    <t>PP-PERI</t>
+    <t>IMESCUT</t>
+  </si>
+  <si>
+    <t>HLA-G-COVID</t>
+  </si>
+  <si>
+    <t>Biobeat-Postop</t>
   </si>
   <si>
     <t>FOP-TP</t>
   </si>
   <si>
+    <t>Fib-Auric</t>
+  </si>
+  <si>
     <t>TDM6</t>
   </si>
   <si>
-    <t>Biobeat-Postop</t>
-  </si>
-  <si>
-    <t>IMESCUT</t>
-  </si>
-  <si>
     <t>COVIDEP</t>
   </si>
   <si>
-    <t>Fib-Auric</t>
-  </si>
-  <si>
-    <t>HLA-G-COVID</t>
+    <t>FerGyTransplan</t>
   </si>
   <si>
     <t>StopAuric</t>
@@ -919,12 +967,24 @@
     <t>ONDELA</t>
   </si>
   <si>
+    <t>Harmonie</t>
+  </si>
+  <si>
+    <t>SPRED</t>
+  </si>
+  <si>
+    <t>VPAQ-Trad</t>
+  </si>
+  <si>
     <t>DEVICE</t>
   </si>
   <si>
     <t>DRUG</t>
   </si>
   <si>
+    <t>DRUG (presumed)</t>
+  </si>
+  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
@@ -937,10 +997,10 @@
     <t>BEHAVIORAL</t>
   </si>
   <si>
+    <t>COMBINATION_PRODUCT</t>
+  </si>
+  <si>
     <t>DIAGNOSTIC_TEST</t>
-  </si>
-  <si>
-    <t>COMBINATION_PRODUCT</t>
   </si>
   <si>
     <t>RADIATION</t>
@@ -1301,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1347,13 +1407,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1367,13 +1427,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1387,13 +1447,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1407,13 +1467,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="I5" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1427,16 +1487,16 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="I6" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1447,16 +1507,19 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>220</v>
+        <v>235</v>
+      </c>
+      <c r="I7" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1470,16 +1533,16 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="I8" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1493,56 +1556,62 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>146</v>
+      </c>
+      <c r="H9" t="s">
+        <v>237</v>
       </c>
       <c r="I9" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="I10" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>148</v>
+      </c>
+      <c r="H11" t="s">
+        <v>239</v>
       </c>
       <c r="I11" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1556,59 +1625,56 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H12" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="I12" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="I13" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="I14" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1622,16 +1688,13 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="I15" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1645,36 +1708,39 @@
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H16" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="I16" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>154</v>
+      </c>
+      <c r="H17" t="s">
+        <v>242</v>
       </c>
       <c r="I17" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1688,13 +1754,13 @@
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I18" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1708,62 +1774,59 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H19" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="I19" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="I20" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="H21" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="I21" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1777,16 +1840,16 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H22" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="I22" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1800,16 +1863,16 @@
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G23" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H23" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="I23" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1822,60 +1885,66 @@
       <c r="C24" t="s">
         <v>38</v>
       </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H24" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="I24" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>162</v>
+      </c>
+      <c r="H25" t="s">
+        <v>248</v>
       </c>
       <c r="I25" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="H26" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="I26" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1888,40 +1957,40 @@
       <c r="C27" t="s">
         <v>41</v>
       </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
       <c r="F27" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G27" t="s">
-        <v>153</v>
-      </c>
-      <c r="H27" t="s">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="I27" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="H28" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="I28" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1931,17 +2000,20 @@
       <c r="B29" t="s">
         <v>13</v>
       </c>
-      <c r="D29" t="s">
-        <v>110</v>
+      <c r="C29" t="s">
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="H29" t="s">
-        <v>230</v>
+        <v>251</v>
+      </c>
+      <c r="I29" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1952,19 +2024,19 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H30" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="I30" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1974,20 +2046,20 @@
       <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" t="s">
-        <v>44</v>
+      <c r="D31" t="s">
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G31" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H31" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="I31" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2001,39 +2073,42 @@
         <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="H32" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="I32" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
       </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G33" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="H33" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2047,128 +2122,134 @@
         <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G34" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H34" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="I34" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H35" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="I35" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G36" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="H36" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
       </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
       <c r="F37" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G37" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="H37" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="I37" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G38" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H38" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="I38" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>118</v>
+        <v>128</v>
+      </c>
+      <c r="G39" t="s">
+        <v>176</v>
       </c>
       <c r="H39" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="I39" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2182,16 +2263,13 @@
         <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
-      </c>
-      <c r="G40" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="H40" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="I40" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2205,39 +2283,39 @@
         <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G41" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H41" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="I41" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G42" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H42" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="I42" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2251,16 +2329,16 @@
         <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G43" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H43" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="I43" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2273,40 +2351,43 @@
       <c r="C44" t="s">
         <v>57</v>
       </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G44" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H44" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="I44" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G45" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="H45" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="I45" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2320,39 +2401,39 @@
         <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G46" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="I46" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G47" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="I47" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2366,39 +2447,39 @@
         <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G48" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="H48" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="I48" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G49" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="H49" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="I49" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2412,16 +2493,16 @@
         <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G50" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="H50" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="I50" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2435,59 +2516,59 @@
         <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="H51" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="I51" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>119</v>
+        <v>129</v>
+      </c>
+      <c r="G52" t="s">
+        <v>188</v>
       </c>
       <c r="H52" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="I52" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
-      </c>
-      <c r="G53" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="H53" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="I53" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2501,16 +2582,16 @@
         <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G54" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H54" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="I54" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2524,16 +2605,16 @@
         <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G55" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="H55" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="I55" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2547,16 +2628,16 @@
         <v>69</v>
       </c>
       <c r="F56" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G56" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H56" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="I56" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2570,16 +2651,16 @@
         <v>70</v>
       </c>
       <c r="F57" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G57" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="H57" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="I57" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2593,16 +2674,16 @@
         <v>71</v>
       </c>
       <c r="F58" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G58" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H58" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="I58" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2616,16 +2697,16 @@
         <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G59" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="H59" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="I59" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2639,39 +2720,42 @@
         <v>73</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G60" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H60" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="I60" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
       </c>
+      <c r="D61" t="s">
+        <v>120</v>
+      </c>
       <c r="F61" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G61" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H61" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="I61" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2685,39 +2769,39 @@
         <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G62" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="H62" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="I62" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
       </c>
       <c r="F63" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G63" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="H63" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="I63" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2731,16 +2815,16 @@
         <v>77</v>
       </c>
       <c r="F64" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G64" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H64" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="I64" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2754,16 +2838,16 @@
         <v>78</v>
       </c>
       <c r="F65" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G65" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="H65" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="I65" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2777,16 +2861,16 @@
         <v>79</v>
       </c>
       <c r="F66" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G66" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H66" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="I66" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2800,16 +2884,16 @@
         <v>80</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G67" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H67" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="I67" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2823,16 +2907,16 @@
         <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G68" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="H68" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="I68" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2846,16 +2930,16 @@
         <v>82</v>
       </c>
       <c r="F69" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G69" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="H69" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="I69" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2869,16 +2953,16 @@
         <v>83</v>
       </c>
       <c r="F70" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G70" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="H70" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="I70" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2892,39 +2976,39 @@
         <v>84</v>
       </c>
       <c r="F71" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G71" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H71" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="I71" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
       </c>
       <c r="F72" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G72" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H72" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="I72" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2938,16 +3022,16 @@
         <v>86</v>
       </c>
       <c r="F73" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G73" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H73" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="I73" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2961,39 +3045,39 @@
         <v>87</v>
       </c>
       <c r="F74" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G74" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H74" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="I74" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
         <v>88</v>
       </c>
       <c r="F75" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G75" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="H75" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="I75" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3007,16 +3091,16 @@
         <v>89</v>
       </c>
       <c r="F76" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G76" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="H76" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="I76" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3030,39 +3114,36 @@
         <v>90</v>
       </c>
       <c r="F77" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G77" t="s">
-        <v>201</v>
-      </c>
-      <c r="H77" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="I77" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
         <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G78" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="H78" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="I78" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3076,16 +3157,16 @@
         <v>92</v>
       </c>
       <c r="F79" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G79" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H79" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="I79" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3099,16 +3180,16 @@
         <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G80" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="H80" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="I80" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3122,16 +3203,16 @@
         <v>94</v>
       </c>
       <c r="F81" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G81" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="H81" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="I81" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3145,16 +3226,16 @@
         <v>95</v>
       </c>
       <c r="F82" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G82" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="H82" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="I82" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3168,13 +3249,16 @@
         <v>96</v>
       </c>
       <c r="F83" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G83" t="s">
-        <v>207</v>
+        <v>218</v>
+      </c>
+      <c r="H83" t="s">
+        <v>303</v>
       </c>
       <c r="I83" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3188,16 +3272,16 @@
         <v>97</v>
       </c>
       <c r="F84" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G84" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H84" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="I84" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3211,39 +3295,39 @@
         <v>98</v>
       </c>
       <c r="F85" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G85" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H85" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="I85" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
         <v>99</v>
       </c>
       <c r="F86" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G86" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H86" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="I86" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3257,16 +3341,16 @@
         <v>100</v>
       </c>
       <c r="F87" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G87" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="H87" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="I87" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3280,16 +3364,16 @@
         <v>101</v>
       </c>
       <c r="F88" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G88" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="H88" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="I88" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3303,16 +3387,16 @@
         <v>102</v>
       </c>
       <c r="F89" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G89" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="H89" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="I89" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3326,16 +3410,16 @@
         <v>103</v>
       </c>
       <c r="F90" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G90" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="H90" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="I90" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3349,16 +3433,13 @@
         <v>104</v>
       </c>
       <c r="F91" t="s">
-        <v>125</v>
-      </c>
-      <c r="G91" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="H91" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="I91" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3372,13 +3453,16 @@
         <v>105</v>
       </c>
       <c r="F92" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="G92" t="s">
+        <v>226</v>
       </c>
       <c r="H92" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="I92" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3392,16 +3476,16 @@
         <v>106</v>
       </c>
       <c r="F93" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G93" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="H93" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="I93" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3415,16 +3499,16 @@
         <v>107</v>
       </c>
       <c r="F94" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G94" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="H94" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="I94" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3438,16 +3522,108 @@
         <v>108</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G95" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="H95" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="I95" t="s">
-        <v>301</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>109</v>
+      </c>
+      <c r="F96" t="s">
+        <v>137</v>
+      </c>
+      <c r="G96" t="s">
+        <v>230</v>
+      </c>
+      <c r="H96" t="s">
+        <v>316</v>
+      </c>
+      <c r="I96" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>110</v>
+      </c>
+      <c r="F97" t="s">
+        <v>137</v>
+      </c>
+      <c r="G97" t="s">
+        <v>231</v>
+      </c>
+      <c r="H97" t="s">
+        <v>317</v>
+      </c>
+      <c r="I97" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
+      <c r="F98" t="s">
+        <v>138</v>
+      </c>
+      <c r="G98" t="s">
+        <v>232</v>
+      </c>
+      <c r="H98" t="s">
+        <v>318</v>
+      </c>
+      <c r="I98" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>112</v>
+      </c>
+      <c r="F99" t="s">
+        <v>138</v>
+      </c>
+      <c r="G99" t="s">
+        <v>233</v>
+      </c>
+      <c r="H99" t="s">
+        <v>319</v>
+      </c>
+      <c r="I99" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
